--- a/寒假/毕设论文/测试数据/测试数据.xlsx
+++ b/寒假/毕设论文/测试数据/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2019.01.08" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="9" sheetId="12" r:id="rId10"/>
     <sheet name="10" sheetId="13" r:id="rId11"/>
     <sheet name="11" sheetId="2" r:id="rId12"/>
-    <sheet name="12" sheetId="15" r:id="rId13"/>
-    <sheet name="temp" sheetId="16" r:id="rId14"/>
+    <sheet name="11copy" sheetId="17" r:id="rId13"/>
+    <sheet name="12" sheetId="15" r:id="rId14"/>
+    <sheet name="temp" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
   <si>
     <t>发送包数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +469,10 @@
   </si>
   <si>
     <t>丢包率2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +939,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,7 +1410,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2670,7 +2673,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3154,7 +3156,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3261,7 +3262,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3745,7 +3745,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10825,6 +10824,1161 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:strRef>
+              <c:f>'11copy'!$F$1:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v> 发包总数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11copy'!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11copy'!$F$9:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBB2-4D5E-AFBD-0F52F0263A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1630511279"/>
+        <c:axId val="1630511695"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11copy'!$H$1:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v>丢包率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11copy'!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11copy'!$H$9:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4285714285714285E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8888888888888893E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6666666666666668E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1428571428571435E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.6249999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.2222222222222228E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBB2-4D5E-AFBD-0F52F0263A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1630500463"/>
+        <c:axId val="1630499631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1630511279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630511695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1630511695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630511279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1630499631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630500463"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1630500463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1630499631"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>平均时延</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11copy'!$F$1:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v> 发包总数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11copy'!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11copy'!$F$9:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94B8-45DB-A3FC-AC803C666091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1627495663"/>
+        <c:axId val="1627498159"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'11copy'!$J$1:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v>平均时延</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11copy'!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11copy'!$J$9:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2395.7862903225805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5956.8697394789579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9543.5891783567131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11651.860020140986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15077.172607128554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21290.904809619238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23633.165803108808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34454.964989626555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29550.343638790036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32010.389691135177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2260.0329896907215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5854.0270812437311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9393.341349365397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11448.840932117528</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14860.98231511254</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19762.711185308846</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18496.282295271048</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20915.090663058189</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29200.530136679365</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31719.71644803229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94B8-45DB-A3FC-AC803C666091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1488827023"/>
+        <c:axId val="1488830767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1627495663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627498159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1627498159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627495663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1488830767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488827023"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1488827023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1488830767"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>丢包率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>发包总数</c:v>
           </c:tx>
           <c:spPr>
@@ -11335,7 +12489,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -11926,7 +13080,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12248,7 +13402,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12841,6 +13994,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1190901055"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12885,6 +14039,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1190905631"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
@@ -12899,6 +14054,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1190905215"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -12981,7 +14137,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -13635,6 +14791,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1190381103"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -16697,7 +17854,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17181,7 +18337,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17288,7 +18443,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17772,7 +18926,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18639,6 +19792,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -28979,6 +30212,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -32736,6 +34975,71 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
@@ -32795,7 +35099,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -35340,8 +37644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35402,7 +37706,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="22">
@@ -36641,9 +38945,536 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="27">
+        <v>500</v>
+      </c>
+      <c r="G9" s="27">
+        <v>496</v>
+      </c>
+      <c r="H9" s="33">
+        <f t="shared" ref="H9:H18" si="0">(F9-G9)/F9</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1188310</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" ref="J9:J18" si="1">I9/G9</f>
+        <v>2395.7862903225805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F10" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="22">
+        <v>998</v>
+      </c>
+      <c r="H10" s="31">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I10" s="23">
+        <v>5944956</v>
+      </c>
+      <c r="J10" s="35">
+        <f t="shared" si="1"/>
+        <v>5956.8697394789579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F11" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1497</v>
+      </c>
+      <c r="H11" s="31">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I11" s="23">
+        <v>14286753</v>
+      </c>
+      <c r="J11" s="35">
+        <f t="shared" si="1"/>
+        <v>9543.5891783567131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1986</v>
+      </c>
+      <c r="H12" s="31">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="23">
+        <v>23140594</v>
+      </c>
+      <c r="J12" s="35">
+        <f t="shared" si="1"/>
+        <v>11651.860020140986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G13" s="22">
+        <v>2497</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I13" s="23">
+        <v>37647700</v>
+      </c>
+      <c r="J13" s="35">
+        <f t="shared" si="1"/>
+        <v>15077.172607128554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="22">
+        <v>2994</v>
+      </c>
+      <c r="H14" s="31">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I14" s="23">
+        <v>63744969</v>
+      </c>
+      <c r="J14" s="35">
+        <f t="shared" si="1"/>
+        <v>21290.904809619238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" s="22">
+        <v>3500</v>
+      </c>
+      <c r="G15" s="22">
+        <v>3474</v>
+      </c>
+      <c r="H15" s="31">
+        <f t="shared" si="0"/>
+        <v>7.4285714285714285E-3</v>
+      </c>
+      <c r="I15" s="23">
+        <v>82101618</v>
+      </c>
+      <c r="J15" s="35">
+        <f t="shared" si="1"/>
+        <v>23633.165803108808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G16" s="22">
+        <v>3856</v>
+      </c>
+      <c r="H16" s="31">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="35">
+        <f t="shared" si="1"/>
+        <v>34454.964989626555</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="22">
+        <v>4500</v>
+      </c>
+      <c r="G17" s="22">
+        <v>4496</v>
+      </c>
+      <c r="H17" s="31">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888893E-4</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="35">
+        <f t="shared" si="1"/>
+        <v>29550.343638790036</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="22">
+        <v>4986</v>
+      </c>
+      <c r="H18" s="31">
+        <f t="shared" si="0"/>
+        <v>2.8E-3</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="35">
+        <f t="shared" si="1"/>
+        <v>32010.389691135177</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="27">
+        <v>500</v>
+      </c>
+      <c r="G21" s="27">
+        <v>485</v>
+      </c>
+      <c r="H21" s="33">
+        <f t="shared" ref="H21:H30" si="2">(F21-G21)/F21</f>
+        <v>0.03</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="37">
+        <f t="shared" ref="J21:J30" si="3">I21/G21</f>
+        <v>2260.0329896907215</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="22">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="22">
+        <v>997</v>
+      </c>
+      <c r="H22" s="31">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="35">
+        <f t="shared" si="3"/>
+        <v>5854.0270812437311</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1497</v>
+      </c>
+      <c r="H23" s="31">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="35">
+        <f t="shared" si="3"/>
+        <v>9393.341349365397</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="22">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="22">
+        <v>1974</v>
+      </c>
+      <c r="H24" s="31">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="35">
+        <f t="shared" si="3"/>
+        <v>11448.840932117528</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="22">
+        <v>2500</v>
+      </c>
+      <c r="G25" s="22">
+        <v>2488</v>
+      </c>
+      <c r="H25" s="31">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="35">
+        <f t="shared" si="3"/>
+        <v>14860.98231511254</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="22">
+        <v>3000</v>
+      </c>
+      <c r="G26" s="22">
+        <v>2995</v>
+      </c>
+      <c r="H26" s="31">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666668E-3</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="35">
+        <f t="shared" si="3"/>
+        <v>19762.711185308846</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="22">
+        <v>3500</v>
+      </c>
+      <c r="G27" s="22">
+        <v>3468</v>
+      </c>
+      <c r="H27" s="31">
+        <f t="shared" si="2"/>
+        <v>9.1428571428571435E-3</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="35">
+        <f t="shared" si="3"/>
+        <v>18496.282295271048</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="22">
+        <v>4000</v>
+      </c>
+      <c r="G28" s="22">
+        <v>3695</v>
+      </c>
+      <c r="H28" s="31">
+        <f t="shared" si="2"/>
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="3"/>
+        <v>20915.090663058189</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="22">
+        <v>4500</v>
+      </c>
+      <c r="G29" s="22">
+        <v>4463</v>
+      </c>
+      <c r="H29" s="31">
+        <f t="shared" si="2"/>
+        <v>8.2222222222222228E-3</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="35">
+        <f t="shared" si="3"/>
+        <v>29200.530136679365</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="22">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="22">
+        <v>4955</v>
+      </c>
+      <c r="H30" s="31">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="35">
+        <f t="shared" si="3"/>
+        <v>31719.71644803229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -37116,12 +39947,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D10:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView topLeftCell="J25" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37430,7 +40261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -37918,7 +40749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -38506,7 +41337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -39467,8 +42298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/寒假/毕设论文/测试数据/测试数据.xlsx
+++ b/寒假/毕设论文/测试数据/测试数据.xlsx
@@ -19,9 +19,9 @@
     <sheet name="9" sheetId="12" r:id="rId10"/>
     <sheet name="10" sheetId="13" r:id="rId11"/>
     <sheet name="11" sheetId="2" r:id="rId12"/>
-    <sheet name="11copy" sheetId="17" r:id="rId13"/>
-    <sheet name="12" sheetId="15" r:id="rId14"/>
-    <sheet name="temp" sheetId="16" r:id="rId15"/>
+    <sheet name="12" sheetId="15" r:id="rId13"/>
+    <sheet name="单线程" sheetId="17" r:id="rId14"/>
+    <sheet name="系统整体" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="137">
   <si>
     <t>发送包数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,10 +387,6 @@
     <t xml:space="preserve">649639622 </t>
   </si>
   <si>
-    <t>G3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实验环境：G1集群分别连接两个集群，G2--G1--G3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,7 +468,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G3</t>
+    <t>Reactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产者-消费者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产者-消费者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reactor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,10 +1599,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,10 +1730,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1729,64 +1745,64 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.76200000000000001</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81399999999999995</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81666666666666665</c:v>
+                  <c:v>0.2167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83599999999999997</c:v>
+                  <c:v>0.23599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87680000000000002</c:v>
+                  <c:v>0.27679999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90366666666666662</c:v>
+                  <c:v>0.30370000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88571428571428568</c:v>
+                  <c:v>0.38569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88924999999999998</c:v>
+                  <c:v>0.38929999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89066666666666672</c:v>
+                  <c:v>0.39069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88439999999999996</c:v>
+                  <c:v>0.38440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.58399999999999996</c:v>
+                  <c:v>0.1004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.53200000000000003</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50666666666666671</c:v>
+                  <c:v>0.1067</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.49049999999999999</c:v>
+                  <c:v>0.1105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56440000000000001</c:v>
+                  <c:v>0.1244</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.66833333333333333</c:v>
+                  <c:v>0.16830000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59142857142857141</c:v>
+                  <c:v>0.19139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52849999999999997</c:v>
+                  <c:v>0.2205</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.53288888888888886</c:v>
+                  <c:v>0.2329</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.49940000000000001</c:v>
+                  <c:v>0.2394</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,10 +2178,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2292,10 +2308,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2673,6 +2689,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3156,6 +3173,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3262,6 +3280,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3745,6 +3764,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7439,10 +7459,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7570,10 +7590,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7585,64 +7605,64 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87666666666666671</c:v>
+                  <c:v>0.1767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88119999999999998</c:v>
+                  <c:v>0.1812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88933333333333331</c:v>
+                  <c:v>0.1893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8868571428571429</c:v>
+                  <c:v>0.18690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88624999999999998</c:v>
+                  <c:v>0.18629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88755555555555554</c:v>
+                  <c:v>0.18759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88500000000000001</c:v>
+                  <c:v>0.185</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.252</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46300000000000002</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47266666666666668</c:v>
+                  <c:v>6.2700000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38500000000000001</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47120000000000001</c:v>
+                  <c:v>7.1199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48266666666666669</c:v>
+                  <c:v>8.2699999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5108571428571429</c:v>
+                  <c:v>0.1109</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.50149999999999995</c:v>
+                  <c:v>0.10150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.50044444444444447</c:v>
+                  <c:v>0.1004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.51060000000000005</c:v>
+                  <c:v>0.1106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10824,1161 +10844,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'11copy'!$F$1:$F$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="7">
-                  <c:v> 发包总数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'11copy'!$E$9:$E$53</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>G3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'11copy'!$F$9:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CBB2-4D5E-AFBD-0F52F0263A09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1630511279"/>
-        <c:axId val="1630511695"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'11copy'!$H$1:$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="7">
-                  <c:v>丢包率</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'11copy'!$E$9:$E$53</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>G3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'11copy'!$H$9:$H$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4285714285714285E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8888888888888893E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.8E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.7999999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6666666666666668E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.1428571428571435E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.6249999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.2222222222222228E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CBB2-4D5E-AFBD-0F52F0263A09}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1630500463"/>
-        <c:axId val="1630499631"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1630511279"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1630511695"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1630511695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1630511279"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1630499631"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1630500463"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1630500463"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1630499631"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>平均时延</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'11copy'!$F$1:$F$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="7">
-                  <c:v> 发包总数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'11copy'!$E$9:$E$53</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>G3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'11copy'!$F$9:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-94B8-45DB-A3FC-AC803C666091}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1627495663"/>
-        <c:axId val="1627498159"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'11copy'!$J$1:$J$8</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="7">
-                  <c:v>平均时延</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'11copy'!$E$9:$E$53</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>G2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>G3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'11copy'!$J$9:$J$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>2395.7862903225805</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5956.8697394789579</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9543.5891783567131</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11651.860020140986</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15077.172607128554</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21290.904809619238</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23633.165803108808</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34454.964989626555</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29550.343638790036</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32010.389691135177</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2260.0329896907215</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5854.0270812437311</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9393.341349365397</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>11448.840932117528</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14860.98231511254</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19762.711185308846</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18496.282295271048</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20915.090663058189</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>29200.530136679365</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>31719.71644803229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-94B8-45DB-A3FC-AC803C666091}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1488827023"/>
-        <c:axId val="1488830767"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1627495663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1627498159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1627498159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1627495663"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1488830767"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1488827023"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1488827023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1488830767"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>丢包率</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
             <c:v>发包总数</c:v>
           </c:tx>
           <c:spPr>
@@ -12489,7 +11354,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -12997,6 +11862,965 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="40407392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>丢包率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>单线程!$F$1:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v> 发包总数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>单线程!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>单线程!$F$9:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBB2-4D5E-AFBD-0F52F0263A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1630511279"/>
+        <c:axId val="1630511695"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>单线程!$H$1:$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v>丢包率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>单线程!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>单线程!$H$9:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88933333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8868571428571429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88624999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88755555555555554</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBB2-4D5E-AFBD-0F52F0263A09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1630500463"/>
+        <c:axId val="1630499631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1630511279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1630511695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1630511695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630511279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1630499631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630500463"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1630500463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1630499631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>平均时延</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>单线程!$F$1:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v> 发包总数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>单线程!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>单线程!$F$9:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94B8-45DB-A3FC-AC803C666091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1627495663"/>
+        <c:axId val="1627498159"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>单线程!$J$1:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="7">
+                  <c:v>平均时延</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>单线程!$E$9:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>G2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>单线程!$J$9:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>132.81565217391304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.32608695652175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.91648351648351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.87121212121212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.72590361445782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.50841750841749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139.75135135135136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.45384615384614</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-94B8-45DB-A3FC-AC803C666091}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1488827023"/>
+        <c:axId val="1488830767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1627495663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1627498159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1627498159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1627495663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1488830767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1488827023"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1488827023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1488830767"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13425,11 +13249,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>temp!$D$10:$D$31</c15:sqref>
+                    <c15:sqref>系统整体!$D$10:$D$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>temp!$D$10:$D$20</c:f>
+              <c:f>系统整体!$D$10:$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -13473,11 +13297,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>temp!$E$11:$E$20</c15:sqref>
+                    <c15:sqref>系统整体!$E$11:$E$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>temp!$E$11:$E$20</c:f>
+              <c:f>系统整体!$E$11:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13620,11 +13444,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>temp!$D$10:$D$31</c15:sqref>
+                    <c15:sqref>系统整体!$D$10:$D$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>temp!$D$10:$D$20</c:f>
+              <c:f>系统整体!$D$10:$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -13668,11 +13492,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>temp!$I$11:$I$20</c15:sqref>
+                    <c15:sqref>系统整体!$I$11:$I$20</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>temp!$I$11:$I$20</c:f>
+              <c:f>系统整体!$I$11:$I$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -13814,11 +13638,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>temp!$D$10:$D$31</c15:sqref>
+                    <c15:sqref>系统整体!$D$10:$D$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>temp!$D$10:$D$20</c:f>
+              <c:f>系统整体!$D$10:$D$20</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -13862,11 +13686,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>temp!$G$10:$G$31</c15:sqref>
+                    <c15:sqref>系统整体!$G$10:$G$31</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>temp!$G$10:$G$20</c:f>
+              <c:f>系统整体!$G$10:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -14219,7 +14043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>temp!$E$10</c:f>
+              <c:f>系统整体!$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14299,7 +14123,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>temp!$E$11:$E$20</c:f>
+              <c:f>系统整体!$E$11:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14437,7 +14261,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>temp!$K$11:$K$20</c:f>
+              <c:f>系统整体!$K$11:$K$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14575,7 +14399,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>temp!$J$11:$J$20</c:f>
+              <c:f>系统整体!$J$11:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -14981,10 +14805,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15112,10 +14936,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15127,64 +14951,64 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
+                  <c:v>132.81565217391304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.32608695652175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.91648351648351</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136.87121212121212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.72590361445782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138.50841750841749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>139.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139.75135135135136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.45384615384614</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>142.25</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>141.45384615384614</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>139.75135135135136</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>139.625</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138.50841750841749</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>138.72590361445782</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>136.87121212121212</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>134.91648351648351</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134.32608695652175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>132.81565217391304</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>60.164282795259503</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.14902135231317</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.219157472417251</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.79205607476635</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>70.757087628865975</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73.507564296520428</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.878048780487802</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>76.603034134007586</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.932960893854755</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>82.443850267379673</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79.932960893854755</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>76.603034134007586</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>74.878048780487802</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>73.507564296520428</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>70.757087628865975</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>68.79205607476635</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>64.219157472417251</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63.14902135231317</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>60.164282795259503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15560,10 +15384,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15697,10 +15521,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15749,34 +15573,34 @@
                   <c:v>119.54782608695652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.121863799283155</c:v>
+                  <c:v>43.63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.623246492985972</c:v>
+                  <c:v>44.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.131449631449632</c:v>
+                  <c:v>45.83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.0780809031044214</c:v>
+                  <c:v>45.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.3718944099378874</c:v>
+                  <c:v>46.89</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8900876601483478</c:v>
+                  <c:v>48.37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7788571428571425</c:v>
+                  <c:v>49.08</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8344438749359302</c:v>
+                  <c:v>51.13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6428248076052512</c:v>
+                  <c:v>52.62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6295838483724765</c:v>
+                  <c:v>53.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16152,10 +15976,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16286,10 +16110,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16308,61 +16132,61 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.86899999999999999</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8726666666666667</c:v>
+                  <c:v>7.2700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87749999999999995</c:v>
+                  <c:v>7.7499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88160000000000005</c:v>
+                  <c:v>8.1600000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88366666666666671</c:v>
+                  <c:v>8.3699999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88428571428571423</c:v>
+                  <c:v>8.43E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88300000000000001</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88488888888888884</c:v>
+                  <c:v>8.4900000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88500000000000001</c:v>
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.442</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.501</c:v>
+                  <c:v>5.0999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45733333333333331</c:v>
+                  <c:v>5.7299999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46850000000000003</c:v>
+                  <c:v>5.8500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48480000000000001</c:v>
+                  <c:v>5.4800000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.50566666666666671</c:v>
+                  <c:v>5.57E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51224999999999998</c:v>
+                  <c:v>6.2300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.50911111111111107</c:v>
+                  <c:v>6.9099999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.51459999999999995</c:v>
+                  <c:v>7.0599999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16737,10 +16561,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16874,10 +16698,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16896,64 +16720,64 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.74399999999999999</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82699999999999996</c:v>
+                  <c:v>0.22700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83466666666666667</c:v>
+                  <c:v>0.23469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85350000000000004</c:v>
+                  <c:v>0.2535</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88360000000000005</c:v>
+                  <c:v>0.28360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89133333333333331</c:v>
+                  <c:v>0.2913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88800000000000001</c:v>
+                  <c:v>0.28799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89100000000000001</c:v>
+                  <c:v>0.29099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88866666666666672</c:v>
+                  <c:v>0.28870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38600000000000001</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.504</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.51300000000000001</c:v>
+                  <c:v>0.123</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5212</c:v>
+                  <c:v>0.14119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.51200000000000001</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.51542857142857146</c:v>
+                  <c:v>0.16539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.505</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.50777777777777777</c:v>
+                  <c:v>0.17780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.51259999999999994</c:v>
+                  <c:v>0.18260000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17328,10 +17152,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17465,10 +17289,10 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>G2</c:v>
+                  <c:v>生产者-消费者</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>G3</c:v>
+                  <c:v>Reactor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17487,64 +17311,64 @@
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>164.8515625</c:v>
+                  <c:v>144.7709090909091</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>147.2874251497006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.94495412844037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.92602040816325</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>163.36994219653178</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>164.55241935483872</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>171.06143344709898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>167.45017182130584</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>164.17791411042944</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>152.92602040816325</c:v>
+                  <c:v>164.55241935483872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150.94495412844037</c:v>
+                  <c:v>164.8515625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>147.2874251497006</c:v>
+                  <c:v>167.45017182130584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>144.7709090909091</c:v>
+                  <c:v>171.06143344709898</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>38.68526877308166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.325959367945821</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.302020202020202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.097877358490564</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43.559426229508198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.962406015037594</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.399383983572896</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.383064516129032</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.940540540540539</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>50.20195439739414</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>47.940540540540539</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>47.383064516129032</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46.399383983572896</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44.962406015037594</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43.559426229508198</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43.097877358490564</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41.302020202020202</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>39.325959367945821</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38.68526877308166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17854,6 +17678,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18337,6 +18162,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18443,6 +18269,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18926,6 +18753,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34975,6 +34803,71 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
@@ -35013,71 +34906,6 @@
       <xdr:colOff>666749</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36690,7 +36518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E4" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -36706,7 +36534,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -36715,7 +36543,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -37167,7 +36995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G22" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -37183,7 +37011,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -37192,7 +37020,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -37644,7 +37472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F53" sqref="F53:J62"/>
     </sheetView>
   </sheetViews>
@@ -37662,7 +37490,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -37671,7 +37499,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -38945,17 +38773,494 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="58">
+        <v>500</v>
+      </c>
+      <c r="G12" s="40">
+        <v>500</v>
+      </c>
+      <c r="H12" s="47">
+        <f>(F12-G12)/F12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="40">
+        <v>1597994</v>
+      </c>
+      <c r="J12" s="65">
+        <f>I12/G12</f>
+        <v>3195.9879999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="75"/>
+      <c r="F13" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="41">
+        <v>999</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" ref="H13:H33" si="0">(F13-G13)/F13</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I13" s="41">
+        <v>6935823</v>
+      </c>
+      <c r="J13" s="63">
+        <f t="shared" ref="J13:J33" si="1">I13/G13</f>
+        <v>6942.7657657657655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="75"/>
+      <c r="F14" s="59">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="41">
+        <v>1476</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="I14" s="41">
+        <v>14560543</v>
+      </c>
+      <c r="J14" s="63">
+        <f t="shared" si="1"/>
+        <v>9864.8665311653112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="75"/>
+      <c r="F15" s="59">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="41">
+        <v>1996</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+      <c r="I15" s="41">
+        <v>25510117</v>
+      </c>
+      <c r="J15" s="63">
+        <f t="shared" si="1"/>
+        <v>12780.619739478958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="75"/>
+      <c r="F16" s="59">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="41">
+        <v>2481</v>
+      </c>
+      <c r="H16" s="48">
+        <f t="shared" si="0"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="I16" s="41">
+        <v>39033755</v>
+      </c>
+      <c r="J16" s="63">
+        <f t="shared" si="1"/>
+        <v>15733.073357517131</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="75"/>
+      <c r="F17" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="41">
+        <v>2979</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I17" s="41">
+        <v>56549139</v>
+      </c>
+      <c r="J17" s="63">
+        <f t="shared" si="1"/>
+        <v>18982.591137965759</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="75"/>
+      <c r="F18" s="59">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="41">
+        <v>3475</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571426E-3</v>
+      </c>
+      <c r="I18" s="41">
+        <v>76408277</v>
+      </c>
+      <c r="J18" s="63">
+        <f t="shared" si="1"/>
+        <v>21987.993381294964</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E19" s="75"/>
+      <c r="F19" s="59">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="41">
+        <v>3976</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="41">
+        <v>99499850</v>
+      </c>
+      <c r="J19" s="63">
+        <f t="shared" si="1"/>
+        <v>25025.113179074448</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="75"/>
+      <c r="F20" s="59">
+        <v>4500</v>
+      </c>
+      <c r="G20" s="41">
+        <v>4473</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="41">
+        <v>125162284</v>
+      </c>
+      <c r="J20" s="63">
+        <f t="shared" si="1"/>
+        <v>27981.731276548177</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="76"/>
+      <c r="F21" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="42">
+        <v>4973</v>
+      </c>
+      <c r="H21" s="49">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="I21" s="42">
+        <v>154356793</v>
+      </c>
+      <c r="J21" s="64">
+        <f t="shared" si="1"/>
+        <v>31038.969032776997</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="58">
+        <v>500</v>
+      </c>
+      <c r="G24" s="40">
+        <v>500</v>
+      </c>
+      <c r="H24" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <v>89806</v>
+      </c>
+      <c r="J24" s="65">
+        <f t="shared" si="1"/>
+        <v>179.61199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="75"/>
+      <c r="F25" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="41">
+        <v>997</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I25" s="41">
+        <v>120640</v>
+      </c>
+      <c r="J25" s="63">
+        <f t="shared" si="1"/>
+        <v>121.00300902708125</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="75"/>
+      <c r="F26" s="59">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="41">
+        <v>1490</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="I26" s="41">
+        <v>160786</v>
+      </c>
+      <c r="J26" s="63">
+        <f t="shared" si="1"/>
+        <v>107.91006711409396</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="75"/>
+      <c r="F27" s="59">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="41">
+        <v>1993</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I27" s="41">
+        <v>242369</v>
+      </c>
+      <c r="J27" s="63">
+        <f t="shared" si="1"/>
+        <v>121.61013547415956</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="75"/>
+      <c r="F28" s="59">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="41">
+        <v>2489</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="I28" s="41">
+        <v>311417</v>
+      </c>
+      <c r="J28" s="63">
+        <f t="shared" si="1"/>
+        <v>125.11731619124146</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="75"/>
+      <c r="F29" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="41">
+        <v>2985</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="41">
+        <v>315846</v>
+      </c>
+      <c r="J29" s="63">
+        <f t="shared" si="1"/>
+        <v>105.81105527638191</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="75"/>
+      <c r="F30" s="59">
+        <v>3500</v>
+      </c>
+      <c r="G30" s="41">
+        <v>3486</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I30" s="41">
+        <v>253758</v>
+      </c>
+      <c r="J30" s="63">
+        <f t="shared" si="1"/>
+        <v>72.79345955249569</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="75"/>
+      <c r="F31" s="59">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="41">
+        <v>3973</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="0"/>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="I31" s="41">
+        <v>369162</v>
+      </c>
+      <c r="J31" s="63">
+        <f t="shared" si="1"/>
+        <v>92.917694437452809</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="75"/>
+      <c r="F32" s="59">
+        <v>4500</v>
+      </c>
+      <c r="G32" s="41">
+        <v>4479</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666671E-3</v>
+      </c>
+      <c r="I32" s="41">
+        <v>401553</v>
+      </c>
+      <c r="J32" s="63">
+        <f t="shared" si="1"/>
+        <v>89.652377762893508</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="76"/>
+      <c r="F33" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="42">
+        <v>4978</v>
+      </c>
+      <c r="H33" s="49">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="I33" s="42">
+        <v>484468</v>
+      </c>
+      <c r="J33" s="64">
+        <f t="shared" si="1"/>
+        <v>97.321815990357578</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="E24:E33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -38970,7 +39275,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -39073,877 +39378,288 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="74" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="27">
         <v>500</v>
       </c>
-      <c r="G9" s="27">
-        <v>496</v>
-      </c>
-      <c r="H9" s="33">
-        <f t="shared" ref="H9:H18" si="0">(F9-G9)/F9</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I9" s="28">
-        <v>1188310</v>
-      </c>
-      <c r="J9" s="37">
-        <f t="shared" ref="J9:J18" si="1">I9/G9</f>
-        <v>2395.7862903225805</v>
+      <c r="G9" s="41">
+        <v>100</v>
+      </c>
+      <c r="H9" s="48">
+        <f>(F9-G9)/F9</f>
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="41">
+        <v>14225</v>
+      </c>
+      <c r="J9" s="64">
+        <f>I18/G18</f>
+        <v>132.81565217391304</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="75"/>
       <c r="F10" s="22">
         <v>1000</v>
       </c>
-      <c r="G10" s="22">
-        <v>998</v>
-      </c>
-      <c r="H10" s="31">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="I10" s="23">
-        <v>5944956</v>
-      </c>
-      <c r="J10" s="35">
-        <f t="shared" si="1"/>
-        <v>5956.8697394789579</v>
+      <c r="G10" s="41">
+        <v>130</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" ref="H10:H18" si="0">(F10-G10)/F10</f>
+        <v>0.87</v>
+      </c>
+      <c r="I10" s="41">
+        <v>18389</v>
+      </c>
+      <c r="J10" s="63">
+        <f>I17/G17</f>
+        <v>134.32608695652175</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E11" s="75"/>
       <c r="F11" s="22">
         <v>1500</v>
       </c>
-      <c r="G11" s="22">
-        <v>1497</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="G11" s="41">
+        <v>185</v>
+      </c>
+      <c r="H11" s="48">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="I11" s="23">
-        <v>14286753</v>
-      </c>
-      <c r="J11" s="35">
-        <f t="shared" si="1"/>
-        <v>9543.5891783567131</v>
+        <v>0.87666666666666671</v>
+      </c>
+      <c r="I11" s="41">
+        <v>25854</v>
+      </c>
+      <c r="J11" s="63">
+        <f>I16/G16</f>
+        <v>134.91648351648351</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="75"/>
       <c r="F12" s="22">
         <v>2000</v>
       </c>
-      <c r="G12" s="22">
-        <v>1986</v>
-      </c>
-      <c r="H12" s="31">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I12" s="23">
-        <v>23140594</v>
-      </c>
-      <c r="J12" s="35">
-        <f t="shared" si="1"/>
-        <v>11651.860020140986</v>
+      <c r="G12" s="41">
+        <v>304</v>
+      </c>
+      <c r="H12" s="48">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="I12" s="41">
+        <v>42446</v>
+      </c>
+      <c r="J12" s="63">
+        <f>I15/G15</f>
+        <v>136.87121212121212</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="75"/>
       <c r="F13" s="22">
         <v>2500</v>
       </c>
-      <c r="G13" s="22">
-        <v>2497</v>
-      </c>
-      <c r="H13" s="31">
+      <c r="G13" s="41">
+        <v>297</v>
+      </c>
+      <c r="H13" s="48">
         <f t="shared" si="0"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I13" s="23">
-        <v>37647700</v>
-      </c>
-      <c r="J13" s="35">
-        <f t="shared" si="1"/>
-        <v>15077.172607128554</v>
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="I13" s="41">
+        <v>41137</v>
+      </c>
+      <c r="J13" s="63">
+        <f>I14/G14</f>
+        <v>138.72590361445782</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E14" s="75"/>
       <c r="F14" s="22">
         <v>3000</v>
       </c>
-      <c r="G14" s="22">
-        <v>2994</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="G14" s="41">
+        <v>332</v>
+      </c>
+      <c r="H14" s="48">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="I14" s="23">
-        <v>63744969</v>
-      </c>
-      <c r="J14" s="35">
-        <f t="shared" si="1"/>
-        <v>21290.904809619238</v>
+        <v>0.88933333333333331</v>
+      </c>
+      <c r="I14" s="41">
+        <v>46057</v>
+      </c>
+      <c r="J14" s="63">
+        <f>I13/G13</f>
+        <v>138.50841750841749</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E15" s="75"/>
       <c r="F15" s="22">
         <v>3500</v>
       </c>
-      <c r="G15" s="22">
-        <v>3474</v>
-      </c>
-      <c r="H15" s="31">
+      <c r="G15" s="41">
+        <v>396</v>
+      </c>
+      <c r="H15" s="48">
         <f t="shared" si="0"/>
-        <v>7.4285714285714285E-3</v>
-      </c>
-      <c r="I15" s="23">
-        <v>82101618</v>
-      </c>
-      <c r="J15" s="35">
-        <f t="shared" si="1"/>
-        <v>23633.165803108808</v>
+        <v>0.8868571428571429</v>
+      </c>
+      <c r="I15" s="41">
+        <v>54201</v>
+      </c>
+      <c r="J15" s="63">
+        <f>I12/G12</f>
+        <v>139.625</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E16" s="75"/>
       <c r="F16" s="22">
         <v>4000</v>
       </c>
-      <c r="G16" s="22">
-        <v>3856</v>
-      </c>
-      <c r="H16" s="31">
+      <c r="G16" s="41">
+        <v>455</v>
+      </c>
+      <c r="H16" s="48">
         <f t="shared" si="0"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="35">
-        <f t="shared" si="1"/>
-        <v>34454.964989626555</v>
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="I16" s="41">
+        <v>61387</v>
+      </c>
+      <c r="J16" s="63">
+        <f>I11/G11</f>
+        <v>139.75135135135136</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="75"/>
       <c r="F17" s="22">
         <v>4500</v>
       </c>
-      <c r="G17" s="22">
-        <v>4496</v>
-      </c>
-      <c r="H17" s="31">
+      <c r="G17" s="41">
+        <v>506</v>
+      </c>
+      <c r="H17" s="48">
         <f t="shared" si="0"/>
-        <v>8.8888888888888893E-4</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="35">
-        <f t="shared" si="1"/>
-        <v>29550.343638790036</v>
+        <v>0.88755555555555554</v>
+      </c>
+      <c r="I17" s="41">
+        <v>67969</v>
+      </c>
+      <c r="J17" s="63">
+        <f>I10/G10</f>
+        <v>141.45384615384614</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F18" s="22">
+    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="76"/>
+      <c r="F18" s="25">
         <v>5000</v>
       </c>
-      <c r="G18" s="22">
-        <v>4986</v>
-      </c>
-      <c r="H18" s="31">
+      <c r="G18" s="42">
+        <v>575</v>
+      </c>
+      <c r="H18" s="49">
         <f t="shared" si="0"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="35">
-        <f t="shared" si="1"/>
-        <v>32010.389691135177</v>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I18" s="42">
+        <v>76369</v>
+      </c>
+      <c r="J18" s="63">
+        <f>I9/G9</f>
+        <v>142.25</v>
       </c>
     </row>
+    <row r="19" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>132</v>
-      </c>
-      <c r="F21" s="27">
-        <v>500</v>
-      </c>
-      <c r="G21" s="27">
-        <v>485</v>
-      </c>
-      <c r="H21" s="33">
-        <f t="shared" ref="H21:H30" si="2">(F21-G21)/F21</f>
-        <v>0.03</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="37">
-        <f t="shared" ref="J21:J30" si="3">I21/G21</f>
-        <v>2260.0329896907215</v>
-      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="22">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="22">
-        <v>997</v>
-      </c>
-      <c r="H22" s="31">
-        <f t="shared" si="2"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="35">
-        <f t="shared" si="3"/>
-        <v>5854.0270812437311</v>
-      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F23" s="22">
-        <v>1500</v>
-      </c>
-      <c r="G23" s="22">
-        <v>1497</v>
-      </c>
-      <c r="H23" s="31">
-        <f t="shared" si="2"/>
-        <v>2E-3</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="35">
-        <f t="shared" si="3"/>
-        <v>9393.341349365397</v>
-      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F24" s="22">
-        <v>2000</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1974</v>
-      </c>
-      <c r="H24" s="31">
-        <f t="shared" si="2"/>
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J24" s="35">
-        <f t="shared" si="3"/>
-        <v>11448.840932117528</v>
-      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F25" s="22">
-        <v>2500</v>
-      </c>
-      <c r="G25" s="22">
-        <v>2488</v>
-      </c>
-      <c r="H25" s="31">
-        <f t="shared" si="2"/>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="3"/>
-        <v>14860.98231511254</v>
-      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F26" s="22">
-        <v>3000</v>
-      </c>
-      <c r="G26" s="22">
-        <v>2995</v>
-      </c>
-      <c r="H26" s="31">
-        <f t="shared" si="2"/>
-        <v>1.6666666666666668E-3</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="35">
-        <f t="shared" si="3"/>
-        <v>19762.711185308846</v>
-      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F27" s="22">
-        <v>3500</v>
-      </c>
-      <c r="G27" s="22">
-        <v>3468</v>
-      </c>
-      <c r="H27" s="31">
-        <f t="shared" si="2"/>
-        <v>9.1428571428571435E-3</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="35">
-        <f t="shared" si="3"/>
-        <v>18496.282295271048</v>
-      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F28" s="22">
-        <v>4000</v>
-      </c>
-      <c r="G28" s="22">
-        <v>3695</v>
-      </c>
-      <c r="H28" s="31">
-        <f t="shared" si="2"/>
-        <v>7.6249999999999998E-2</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="35">
-        <f t="shared" si="3"/>
-        <v>20915.090663058189</v>
-      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="22">
-        <v>4500</v>
-      </c>
-      <c r="G29" s="22">
-        <v>4463</v>
-      </c>
-      <c r="H29" s="31">
-        <f t="shared" si="2"/>
-        <v>8.2222222222222228E-3</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J29" s="35">
-        <f t="shared" si="3"/>
-        <v>29200.530136679365</v>
-      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="22">
-        <v>5000</v>
-      </c>
-      <c r="G30" s="22">
-        <v>4955</v>
-      </c>
-      <c r="H30" s="31">
-        <f t="shared" si="2"/>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="35">
-        <f t="shared" si="3"/>
-        <v>31719.71644803229</v>
-      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:E2"/>
+    <mergeCell ref="E9:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="57" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="58">
-        <v>500</v>
-      </c>
-      <c r="G12" s="40">
-        <v>500</v>
-      </c>
-      <c r="H12" s="47">
-        <f>(F12-G12)/F12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="40">
-        <v>1597994</v>
-      </c>
-      <c r="J12" s="65">
-        <f>I12/G12</f>
-        <v>3195.9879999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="75"/>
-      <c r="F13" s="59">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="41">
-        <v>999</v>
-      </c>
-      <c r="H13" s="48">
-        <f t="shared" ref="H13:H33" si="0">(F13-G13)/F13</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I13" s="41">
-        <v>6935823</v>
-      </c>
-      <c r="J13" s="63">
-        <f t="shared" ref="J13:J33" si="1">I13/G13</f>
-        <v>6942.7657657657655</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E14" s="75"/>
-      <c r="F14" s="59">
-        <v>1500</v>
-      </c>
-      <c r="G14" s="41">
-        <v>1476</v>
-      </c>
-      <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="I14" s="41">
-        <v>14560543</v>
-      </c>
-      <c r="J14" s="63">
-        <f t="shared" si="1"/>
-        <v>9864.8665311653112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E15" s="75"/>
-      <c r="F15" s="59">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="41">
-        <v>1996</v>
-      </c>
-      <c r="H15" s="48">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="I15" s="41">
-        <v>25510117</v>
-      </c>
-      <c r="J15" s="63">
-        <f t="shared" si="1"/>
-        <v>12780.619739478958</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="75"/>
-      <c r="F16" s="59">
-        <v>2500</v>
-      </c>
-      <c r="G16" s="41">
-        <v>2481</v>
-      </c>
-      <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>7.6E-3</v>
-      </c>
-      <c r="I16" s="41">
-        <v>39033755</v>
-      </c>
-      <c r="J16" s="63">
-        <f t="shared" si="1"/>
-        <v>15733.073357517131</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="75"/>
-      <c r="F17" s="59">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="41">
-        <v>2979</v>
-      </c>
-      <c r="H17" s="48">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="I17" s="41">
-        <v>56549139</v>
-      </c>
-      <c r="J17" s="63">
-        <f t="shared" si="1"/>
-        <v>18982.591137965759</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="75"/>
-      <c r="F18" s="59">
-        <v>3500</v>
-      </c>
-      <c r="G18" s="41">
-        <v>3475</v>
-      </c>
-      <c r="H18" s="48">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571426E-3</v>
-      </c>
-      <c r="I18" s="41">
-        <v>76408277</v>
-      </c>
-      <c r="J18" s="63">
-        <f t="shared" si="1"/>
-        <v>21987.993381294964</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="75"/>
-      <c r="F19" s="59">
-        <v>4000</v>
-      </c>
-      <c r="G19" s="41">
-        <v>3976</v>
-      </c>
-      <c r="H19" s="48">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I19" s="41">
-        <v>99499850</v>
-      </c>
-      <c r="J19" s="63">
-        <f t="shared" si="1"/>
-        <v>25025.113179074448</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="75"/>
-      <c r="F20" s="59">
-        <v>4500</v>
-      </c>
-      <c r="G20" s="41">
-        <v>4473</v>
-      </c>
-      <c r="H20" s="48">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I20" s="41">
-        <v>125162284</v>
-      </c>
-      <c r="J20" s="63">
-        <f t="shared" si="1"/>
-        <v>27981.731276548177</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="76"/>
-      <c r="F21" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="42">
-        <v>4973</v>
-      </c>
-      <c r="H21" s="49">
-        <f t="shared" si="0"/>
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="I21" s="42">
-        <v>154356793</v>
-      </c>
-      <c r="J21" s="64">
-        <f t="shared" si="1"/>
-        <v>31038.969032776997</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="58">
-        <v>500</v>
-      </c>
-      <c r="G24" s="40">
-        <v>500</v>
-      </c>
-      <c r="H24" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
-        <v>89806</v>
-      </c>
-      <c r="J24" s="65">
-        <f t="shared" si="1"/>
-        <v>179.61199999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="75"/>
-      <c r="F25" s="59">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="41">
-        <v>997</v>
-      </c>
-      <c r="H25" s="48">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I25" s="41">
-        <v>120640</v>
-      </c>
-      <c r="J25" s="63">
-        <f t="shared" si="1"/>
-        <v>121.00300902708125</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="75"/>
-      <c r="F26" s="59">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="41">
-        <v>1490</v>
-      </c>
-      <c r="H26" s="48">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="I26" s="41">
-        <v>160786</v>
-      </c>
-      <c r="J26" s="63">
-        <f t="shared" si="1"/>
-        <v>107.91006711409396</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="75"/>
-      <c r="F27" s="59">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="41">
-        <v>1993</v>
-      </c>
-      <c r="H27" s="48">
-        <f t="shared" si="0"/>
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I27" s="41">
-        <v>242369</v>
-      </c>
-      <c r="J27" s="63">
-        <f t="shared" si="1"/>
-        <v>121.61013547415956</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="75"/>
-      <c r="F28" s="59">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="41">
-        <v>2489</v>
-      </c>
-      <c r="H28" s="48">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="I28" s="41">
-        <v>311417</v>
-      </c>
-      <c r="J28" s="63">
-        <f t="shared" si="1"/>
-        <v>125.11731619124146</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="75"/>
-      <c r="F29" s="59">
-        <v>3000</v>
-      </c>
-      <c r="G29" s="41">
-        <v>2985</v>
-      </c>
-      <c r="H29" s="48">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I29" s="41">
-        <v>315846</v>
-      </c>
-      <c r="J29" s="63">
-        <f t="shared" si="1"/>
-        <v>105.81105527638191</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="75"/>
-      <c r="F30" s="59">
-        <v>3500</v>
-      </c>
-      <c r="G30" s="41">
-        <v>3486</v>
-      </c>
-      <c r="H30" s="48">
-        <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="I30" s="41">
-        <v>253758</v>
-      </c>
-      <c r="J30" s="63">
-        <f t="shared" si="1"/>
-        <v>72.79345955249569</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="75"/>
-      <c r="F31" s="59">
-        <v>4000</v>
-      </c>
-      <c r="G31" s="41">
-        <v>3973</v>
-      </c>
-      <c r="H31" s="48">
-        <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="I31" s="41">
-        <v>369162</v>
-      </c>
-      <c r="J31" s="63">
-        <f t="shared" si="1"/>
-        <v>92.917694437452809</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="75"/>
-      <c r="F32" s="59">
-        <v>4500</v>
-      </c>
-      <c r="G32" s="41">
-        <v>4479</v>
-      </c>
-      <c r="H32" s="48">
-        <f t="shared" si="0"/>
-        <v>4.6666666666666671E-3</v>
-      </c>
-      <c r="I32" s="41">
-        <v>401553</v>
-      </c>
-      <c r="J32" s="63">
-        <f t="shared" si="1"/>
-        <v>89.652377762893508</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="76"/>
-      <c r="F33" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G33" s="42">
-        <v>4978</v>
-      </c>
-      <c r="H33" s="49">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="I33" s="42">
-        <v>484468</v>
-      </c>
-      <c r="J33" s="64">
-        <f t="shared" si="1"/>
-        <v>97.321815990357578</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="E24:E33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -39951,7 +39667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D10:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="J25" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -39965,25 +39681,25 @@
   <sheetData>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
         <v>128</v>
       </c>
-      <c r="E10" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="53" t="s">
+      <c r="K10" s="53" t="s">
         <v>130</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -39994,7 +39710,7 @@
         <v>500</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11">
         <v>13.65</v>
@@ -40017,7 +39733,7 @@
         <v>1000</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12">
         <v>12.41</v>
@@ -40040,7 +39756,7 @@
         <v>1500</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13">
         <v>13.61</v>
@@ -40063,7 +39779,7 @@
         <v>2000</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14">
         <v>15.04</v>
@@ -40086,7 +39802,7 @@
         <v>2500</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15">
         <v>17.03</v>
@@ -40109,7 +39825,7 @@
         <v>3000</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16">
         <v>17.54</v>
@@ -40132,7 +39848,7 @@
         <v>3500</v>
       </c>
       <c r="F17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17">
         <v>17.25</v>
@@ -40155,7 +39871,7 @@
         <v>4000</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18">
         <v>18.170000000000002</v>
@@ -40178,7 +39894,7 @@
         <v>4500</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19">
         <v>19.21</v>
@@ -40201,7 +39917,7 @@
         <v>5000</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20">
         <v>20.57</v>
@@ -40261,8 +39977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40277,7 +39993,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -40286,7 +40002,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -40323,9 +40039,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="74" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F12" s="27">
         <v>500</v>
@@ -40334,18 +40050,17 @@
         <v>100</v>
       </c>
       <c r="H12" s="48">
-        <f>(F12-G12)/F12</f>
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I12" s="41">
         <v>14225</v>
       </c>
-      <c r="J12" s="63">
-        <f>I12/G12</f>
-        <v>142.25</v>
+      <c r="J12" s="64">
+        <f>I21/G21</f>
+        <v>132.81565217391304</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E13" s="75"/>
       <c r="F13" s="22">
         <v>1000</v>
@@ -40354,15 +40069,14 @@
         <v>130</v>
       </c>
       <c r="H13" s="48">
-        <f t="shared" ref="H13:H33" si="0">(F13-G13)/F13</f>
-        <v>0.87</v>
+        <v>0.17</v>
       </c>
       <c r="I13" s="41">
         <v>18389</v>
       </c>
       <c r="J13" s="63">
-        <f t="shared" ref="J13:J33" si="1">I13/G13</f>
-        <v>141.45384615384614</v>
+        <f>I20/G20</f>
+        <v>134.32608695652175</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -40374,15 +40088,14 @@
         <v>185</v>
       </c>
       <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>0.87666666666666671</v>
+        <v>0.1767</v>
       </c>
       <c r="I14" s="41">
         <v>25854</v>
       </c>
       <c r="J14" s="63">
-        <f t="shared" si="1"/>
-        <v>139.75135135135136</v>
+        <f>I19/G19</f>
+        <v>134.91648351648351</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -40394,15 +40107,14 @@
         <v>304</v>
       </c>
       <c r="H15" s="48">
-        <f t="shared" si="0"/>
-        <v>0.84799999999999998</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="I15" s="41">
         <v>42446</v>
       </c>
       <c r="J15" s="63">
-        <f t="shared" si="1"/>
-        <v>139.625</v>
+        <f>I18/G18</f>
+        <v>136.87121212121212</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -40414,15 +40126,14 @@
         <v>297</v>
       </c>
       <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88119999999999998</v>
+        <v>0.1812</v>
       </c>
       <c r="I16" s="41">
         <v>41137</v>
       </c>
       <c r="J16" s="63">
-        <f t="shared" si="1"/>
-        <v>138.50841750841749</v>
+        <f>I17/G17</f>
+        <v>138.72590361445782</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
@@ -40434,15 +40145,14 @@
         <v>332</v>
       </c>
       <c r="H17" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88933333333333331</v>
+        <v>0.1893</v>
       </c>
       <c r="I17" s="41">
         <v>46057</v>
       </c>
       <c r="J17" s="63">
-        <f t="shared" si="1"/>
-        <v>138.72590361445782</v>
+        <f>I16/G16</f>
+        <v>138.50841750841749</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
@@ -40454,15 +40164,14 @@
         <v>396</v>
       </c>
       <c r="H18" s="48">
-        <f t="shared" si="0"/>
-        <v>0.8868571428571429</v>
+        <v>0.18690000000000001</v>
       </c>
       <c r="I18" s="41">
         <v>54201</v>
       </c>
       <c r="J18" s="63">
-        <f t="shared" si="1"/>
-        <v>136.87121212121212</v>
+        <f>I15/G15</f>
+        <v>139.625</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
@@ -40474,15 +40183,14 @@
         <v>455</v>
       </c>
       <c r="H19" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88624999999999998</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="I19" s="41">
         <v>61387</v>
       </c>
       <c r="J19" s="63">
-        <f t="shared" si="1"/>
-        <v>134.91648351648351</v>
+        <f>I14/G14</f>
+        <v>139.75135135135136</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
@@ -40494,15 +40202,14 @@
         <v>506</v>
       </c>
       <c r="H20" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88755555555555554</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="I20" s="41">
         <v>67969</v>
       </c>
       <c r="J20" s="63">
-        <f t="shared" si="1"/>
-        <v>134.32608695652175</v>
+        <f>I13/G13</f>
+        <v>141.45384615384614</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -40514,22 +40221,21 @@
         <v>575</v>
       </c>
       <c r="H21" s="49">
-        <f t="shared" si="0"/>
-        <v>0.88500000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="I21" s="42">
         <v>76369</v>
       </c>
-      <c r="J21" s="64">
-        <f t="shared" si="1"/>
-        <v>132.81565217391304</v>
+      <c r="J21" s="63">
+        <f>I12/G12</f>
+        <v>142.25</v>
       </c>
     </row>
     <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="74" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F24" s="61">
         <v>500</v>
@@ -40538,18 +40244,17 @@
         <v>374</v>
       </c>
       <c r="H24" s="47">
-        <f t="shared" si="0"/>
-        <v>0.252</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I24" s="40">
         <v>30834</v>
       </c>
-      <c r="J24" s="65">
-        <f t="shared" si="1"/>
-        <v>82.443850267379673</v>
+      <c r="J24" s="64">
+        <f>I33/G33</f>
+        <v>60.164282795259503</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E25" s="75"/>
       <c r="F25" s="29">
         <v>1000</v>
@@ -40558,15 +40263,14 @@
         <v>537</v>
       </c>
       <c r="H25" s="48">
-        <f t="shared" si="0"/>
-        <v>0.46300000000000002</v>
+        <v>6.3E-2</v>
       </c>
       <c r="I25" s="41">
         <v>42924</v>
       </c>
       <c r="J25" s="63">
-        <f t="shared" si="1"/>
-        <v>79.932960893854755</v>
+        <f>I32/G32</f>
+        <v>63.14902135231317</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.2">
@@ -40578,15 +40282,14 @@
         <v>791</v>
       </c>
       <c r="H26" s="48">
-        <f t="shared" si="0"/>
-        <v>0.47266666666666668</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="I26" s="41">
         <v>60593</v>
       </c>
       <c r="J26" s="63">
-        <f t="shared" si="1"/>
-        <v>76.603034134007586</v>
+        <f>I31/G31</f>
+        <v>64.219157472417251</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
@@ -40598,15 +40301,14 @@
         <v>1230</v>
       </c>
       <c r="H27" s="48">
-        <f t="shared" si="0"/>
-        <v>0.38500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="I27" s="41">
         <v>92100</v>
       </c>
       <c r="J27" s="63">
-        <f t="shared" si="1"/>
-        <v>74.878048780487802</v>
+        <f>I30/G30</f>
+        <v>68.79205607476635</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.2">
@@ -40618,15 +40320,14 @@
         <v>1322</v>
       </c>
       <c r="H28" s="48">
-        <f t="shared" si="0"/>
-        <v>0.47120000000000001</v>
+        <v>7.1199999999999999E-2</v>
       </c>
       <c r="I28" s="41">
         <v>97177</v>
       </c>
       <c r="J28" s="63">
-        <f t="shared" si="1"/>
-        <v>73.507564296520428</v>
+        <f>I29/G29</f>
+        <v>70.757087628865975</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.2">
@@ -40638,15 +40339,14 @@
         <v>1552</v>
       </c>
       <c r="H29" s="48">
-        <f t="shared" si="0"/>
-        <v>0.48266666666666669</v>
+        <v>8.2699999999999996E-2</v>
       </c>
       <c r="I29" s="41">
         <v>109815</v>
       </c>
       <c r="J29" s="63">
-        <f t="shared" si="1"/>
-        <v>70.757087628865975</v>
+        <f>I28/G28</f>
+        <v>73.507564296520428</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
@@ -40658,15 +40358,14 @@
         <v>1712</v>
       </c>
       <c r="H30" s="48">
-        <f t="shared" si="0"/>
-        <v>0.5108571428571429</v>
+        <v>0.1109</v>
       </c>
       <c r="I30" s="41">
         <v>117772</v>
       </c>
       <c r="J30" s="63">
-        <f t="shared" si="1"/>
-        <v>68.79205607476635</v>
+        <f>I27/G27</f>
+        <v>74.878048780487802</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.2">
@@ -40678,18 +40377,17 @@
         <v>1994</v>
       </c>
       <c r="H31" s="48">
-        <f t="shared" si="0"/>
-        <v>0.50149999999999995</v>
+        <v>0.10150000000000001</v>
       </c>
       <c r="I31" s="41">
         <v>128053</v>
       </c>
       <c r="J31" s="63">
-        <f t="shared" si="1"/>
-        <v>64.219157472417251</v>
+        <f>I26/G26</f>
+        <v>76.603034134007586</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E32" s="75"/>
       <c r="F32" s="29">
         <v>4500</v>
@@ -40698,18 +40396,17 @@
         <v>2248</v>
       </c>
       <c r="H32" s="48">
-        <f t="shared" si="0"/>
-        <v>0.50044444444444447</v>
+        <v>0.1004</v>
       </c>
       <c r="I32" s="41">
         <v>141959</v>
       </c>
       <c r="J32" s="63">
-        <f t="shared" si="1"/>
-        <v>63.14902135231317</v>
+        <f>I25/G25</f>
+        <v>79.932960893854755</v>
       </c>
     </row>
-    <row r="33" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E33" s="76"/>
       <c r="F33" s="62">
         <v>5000</v>
@@ -40718,21 +40415,23 @@
         <v>2447</v>
       </c>
       <c r="H33" s="49">
-        <f t="shared" si="0"/>
-        <v>0.51060000000000005</v>
+        <v>0.1106</v>
       </c>
       <c r="I33" s="41">
         <v>147222</v>
       </c>
-      <c r="J33" s="64">
-        <f t="shared" si="1"/>
-        <v>60.164282795259503</v>
+      <c r="J33" s="65">
+        <f>I24/G24</f>
+        <v>82.443850267379673</v>
       </c>
     </row>
     <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="I34" s="66"/>
     </row>
   </sheetData>
+  <sortState ref="H40:H48">
+    <sortCondition descending="1" ref="H12"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E12:E21"/>
@@ -40749,8 +40448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40766,7 +40465,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -40781,7 +40480,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -40915,7 +40614,7 @@
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E12" s="74" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F12" s="58">
         <v>500</v>
@@ -40924,8 +40623,7 @@
         <v>70</v>
       </c>
       <c r="H12" s="48">
-        <f>(F12-G12)/F12</f>
-        <v>0.86</v>
+        <v>0.06</v>
       </c>
       <c r="I12" s="41">
         <v>8411</v>
@@ -40944,14 +40642,13 @@
         <v>131</v>
       </c>
       <c r="H13" s="48">
-        <f t="shared" ref="H13:H33" si="0">(F13-G13)/F13</f>
-        <v>0.86899999999999999</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="I13" s="41">
         <v>15719</v>
       </c>
       <c r="J13" s="63">
-        <f t="shared" ref="J13:J33" si="1">I13/G13</f>
+        <f t="shared" ref="J13:J33" si="0">I13/G13</f>
         <v>119.99236641221374</v>
       </c>
     </row>
@@ -40964,14 +40661,13 @@
         <v>191</v>
       </c>
       <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>0.8726666666666667</v>
+        <v>7.2700000000000001E-2</v>
       </c>
       <c r="I14" s="41">
         <v>22887</v>
       </c>
       <c r="J14" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119.82722513089006</v>
       </c>
     </row>
@@ -40984,14 +40680,13 @@
         <v>245</v>
       </c>
       <c r="H15" s="48">
-        <f t="shared" si="0"/>
-        <v>0.87749999999999995</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="I15" s="41">
         <v>29244</v>
       </c>
       <c r="J15" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119.36326530612244</v>
       </c>
     </row>
@@ -41004,14 +40699,13 @@
         <v>296</v>
       </c>
       <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88160000000000005</v>
+        <v>8.1600000000000006E-2</v>
       </c>
       <c r="I16" s="41">
         <v>35067</v>
       </c>
       <c r="J16" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>118.4695945945946</v>
       </c>
     </row>
@@ -41024,14 +40718,13 @@
         <v>349</v>
       </c>
       <c r="H17" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88366666666666671</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="I17" s="41">
         <v>41421</v>
       </c>
       <c r="J17" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>118.68481375358166</v>
       </c>
     </row>
@@ -41044,14 +40737,13 @@
         <v>405</v>
       </c>
       <c r="H18" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88428571428571423</v>
+        <v>8.43E-2</v>
       </c>
       <c r="I18" s="41">
         <v>48073</v>
       </c>
       <c r="J18" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>118.69876543209877</v>
       </c>
     </row>
@@ -41064,14 +40756,13 @@
         <v>468</v>
       </c>
       <c r="H19" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88300000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I19" s="41">
         <v>55820</v>
       </c>
       <c r="J19" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119.27350427350427</v>
       </c>
     </row>
@@ -41084,14 +40775,13 @@
         <v>518</v>
       </c>
       <c r="H20" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88488888888888884</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="I20" s="41">
         <v>61817</v>
       </c>
       <c r="J20" s="63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119.33783783783784</v>
       </c>
     </row>
@@ -41104,22 +40794,21 @@
         <v>575</v>
       </c>
       <c r="H21" s="49">
-        <f t="shared" si="0"/>
-        <v>0.88500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="I21" s="42">
         <v>68740</v>
       </c>
       <c r="J21" s="64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119.54782608695652</v>
       </c>
     </row>
     <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="74" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="F24" s="58">
         <v>500</v>
@@ -41128,18 +40817,16 @@
         <v>279</v>
       </c>
       <c r="H24" s="47">
-        <f t="shared" si="0"/>
-        <v>0.442</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I24" s="40">
         <v>3661</v>
       </c>
-      <c r="J24" s="65">
-        <f t="shared" si="1"/>
-        <v>13.121863799283155</v>
+      <c r="J24" s="64">
+        <v>43.63</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E25" s="75"/>
       <c r="F25" s="59">
         <v>1000</v>
@@ -41148,15 +40835,13 @@
         <v>499</v>
       </c>
       <c r="H25" s="48">
-        <f t="shared" si="0"/>
-        <v>0.501</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="I25" s="41">
         <v>6299</v>
       </c>
       <c r="J25" s="63">
-        <f t="shared" si="1"/>
-        <v>12.623246492985972</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.2">
@@ -41168,15 +40853,13 @@
         <v>814</v>
       </c>
       <c r="H26" s="48">
-        <f t="shared" si="0"/>
-        <v>0.45733333333333331</v>
+        <v>5.7299999999999997E-2</v>
       </c>
       <c r="I26" s="41">
         <v>9061</v>
       </c>
       <c r="J26" s="63">
-        <f t="shared" si="1"/>
-        <v>11.131449631449632</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
@@ -41188,15 +40871,13 @@
         <v>1063</v>
       </c>
       <c r="H27" s="48">
-        <f t="shared" si="0"/>
-        <v>0.46850000000000003</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="I27" s="41">
         <v>9650</v>
       </c>
       <c r="J27" s="63">
-        <f t="shared" si="1"/>
-        <v>9.0780809031044214</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.2">
@@ -41208,15 +40889,13 @@
         <v>1288</v>
       </c>
       <c r="H28" s="48">
-        <f t="shared" si="0"/>
-        <v>0.48480000000000001</v>
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="I28" s="41">
         <v>10783</v>
       </c>
       <c r="J28" s="63">
-        <f t="shared" si="1"/>
-        <v>8.3718944099378874</v>
+        <v>46.89</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.2">
@@ -41228,15 +40907,13 @@
         <v>1483</v>
       </c>
       <c r="H29" s="48">
-        <f t="shared" si="0"/>
-        <v>0.50566666666666671</v>
+        <v>5.57E-2</v>
       </c>
       <c r="I29" s="41">
         <v>10218</v>
       </c>
       <c r="J29" s="63">
-        <f t="shared" si="1"/>
-        <v>6.8900876601483478</v>
+        <v>48.37</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
@@ -41248,15 +40925,13 @@
         <v>1750</v>
       </c>
       <c r="H30" s="48">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.06</v>
       </c>
       <c r="I30" s="41">
         <v>10113</v>
       </c>
       <c r="J30" s="63">
-        <f t="shared" si="1"/>
-        <v>5.7788571428571425</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.2">
@@ -41268,18 +40943,16 @@
         <v>1951</v>
       </c>
       <c r="H31" s="48">
-        <f t="shared" si="0"/>
-        <v>0.51224999999999998</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="I31" s="41">
         <v>11383</v>
       </c>
       <c r="J31" s="63">
-        <f t="shared" si="1"/>
-        <v>5.8344438749359302</v>
+        <v>51.13</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E32" s="75"/>
       <c r="F32" s="59">
         <v>4500</v>
@@ -41288,18 +40961,16 @@
         <v>2209</v>
       </c>
       <c r="H32" s="48">
-        <f t="shared" si="0"/>
-        <v>0.50911111111111107</v>
+        <v>6.9099999999999995E-2</v>
       </c>
       <c r="I32" s="41">
         <v>10256</v>
       </c>
       <c r="J32" s="63">
-        <f t="shared" si="1"/>
-        <v>4.6428248076052512</v>
+        <v>52.62</v>
       </c>
     </row>
-    <row r="33" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E33" s="76"/>
       <c r="F33" s="60">
         <v>5000</v>
@@ -41308,15 +40979,13 @@
         <v>2427</v>
       </c>
       <c r="H33" s="49">
-        <f t="shared" si="0"/>
-        <v>0.51459999999999995</v>
+        <v>7.0599999999999996E-2</v>
       </c>
       <c r="I33" s="42">
         <v>8809</v>
       </c>
-      <c r="J33" s="64">
-        <f t="shared" si="1"/>
-        <v>3.6295838483724765</v>
+      <c r="J33" s="65">
+        <v>53.12</v>
       </c>
     </row>
     <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -41337,7 +41006,471 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="13" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="58">
+        <v>500</v>
+      </c>
+      <c r="G12" s="69">
+        <v>128</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I12" s="66">
+        <v>21101</v>
+      </c>
+      <c r="J12" s="64">
+        <f>I21/G21</f>
+        <v>144.7709090909091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="75"/>
+      <c r="F13" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="70">
+        <v>173</v>
+      </c>
+      <c r="H13" s="48">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I13" s="72">
+        <v>28263</v>
+      </c>
+      <c r="J13" s="63">
+        <f>I20/G20</f>
+        <v>147.2874251497006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="75"/>
+      <c r="F14" s="59">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="70">
+        <v>248</v>
+      </c>
+      <c r="H14" s="48">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="I14" s="72">
+        <v>40809</v>
+      </c>
+      <c r="J14" s="63">
+        <f>I19/G19</f>
+        <v>150.94495412844037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="75"/>
+      <c r="F15" s="59">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="70">
+        <v>293</v>
+      </c>
+      <c r="H15" s="48">
+        <v>0.2535</v>
+      </c>
+      <c r="I15" s="72">
+        <v>50121</v>
+      </c>
+      <c r="J15" s="63">
+        <f>I18/G18</f>
+        <v>152.92602040816325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="75"/>
+      <c r="F16" s="59">
+        <v>2500</v>
+      </c>
+      <c r="G16" s="70">
+        <v>291</v>
+      </c>
+      <c r="H16" s="48">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="I16" s="72">
+        <v>48728</v>
+      </c>
+      <c r="J16" s="63">
+        <f>I13/G13</f>
+        <v>163.36994219653178</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="75"/>
+      <c r="F17" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="70">
+        <v>326</v>
+      </c>
+      <c r="H17" s="48">
+        <v>0.2913</v>
+      </c>
+      <c r="I17" s="72">
+        <v>53522</v>
+      </c>
+      <c r="J17" s="63">
+        <f>I17/G17</f>
+        <v>164.17791411042944</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="75"/>
+      <c r="F18" s="59">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="70">
+        <v>392</v>
+      </c>
+      <c r="H18" s="48">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I18" s="72">
+        <v>59947</v>
+      </c>
+      <c r="J18" s="63">
+        <f>I14/G14</f>
+        <v>164.55241935483872</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="75"/>
+      <c r="F19" s="59">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="70">
+        <v>436</v>
+      </c>
+      <c r="H19" s="48">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="I19" s="72">
+        <v>65812</v>
+      </c>
+      <c r="J19" s="65">
+        <f>I12/G12</f>
+        <v>164.8515625</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" s="75"/>
+      <c r="F20" s="59">
+        <v>4500</v>
+      </c>
+      <c r="G20" s="70">
+        <v>501</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="I20" s="72">
+        <v>73791</v>
+      </c>
+      <c r="J20" s="63">
+        <f>I16/G16</f>
+        <v>167.45017182130584</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="76"/>
+      <c r="F21" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="71">
+        <v>550</v>
+      </c>
+      <c r="H21" s="49">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I21" s="73">
+        <v>79624</v>
+      </c>
+      <c r="J21" s="63">
+        <f>I15/G15</f>
+        <v>171.06143344709898</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="58">
+        <v>500</v>
+      </c>
+      <c r="G24" s="69">
+        <v>307</v>
+      </c>
+      <c r="H24" s="47">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="I24" s="66">
+        <v>15412</v>
+      </c>
+      <c r="J24" s="64">
+        <f>I33/G33</f>
+        <v>38.68526877308166</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="75"/>
+      <c r="F25" s="59">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="70">
+        <v>555</v>
+      </c>
+      <c r="H25" s="48">
+        <v>0.105</v>
+      </c>
+      <c r="I25" s="72">
+        <v>26607</v>
+      </c>
+      <c r="J25" s="63">
+        <f>I32/G32</f>
+        <v>39.325959367945821</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="75"/>
+      <c r="F26" s="59">
+        <v>1500</v>
+      </c>
+      <c r="G26" s="70">
+        <v>744</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0.114</v>
+      </c>
+      <c r="I26" s="72">
+        <v>35253</v>
+      </c>
+      <c r="J26" s="63">
+        <f>I31/G31</f>
+        <v>41.302020202020202</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="75"/>
+      <c r="F27" s="59">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="70">
+        <v>974</v>
+      </c>
+      <c r="H27" s="48">
+        <v>0.123</v>
+      </c>
+      <c r="I27" s="72">
+        <v>45193</v>
+      </c>
+      <c r="J27" s="63">
+        <f>I30/G30</f>
+        <v>43.097877358490564</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="75"/>
+      <c r="F28" s="59">
+        <v>2500</v>
+      </c>
+      <c r="G28" s="70">
+        <v>1197</v>
+      </c>
+      <c r="H28" s="48">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="I28" s="72">
+        <v>53820</v>
+      </c>
+      <c r="J28" s="63">
+        <f>I29/G29</f>
+        <v>43.559426229508198</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="75"/>
+      <c r="F29" s="59">
+        <v>3000</v>
+      </c>
+      <c r="G29" s="70">
+        <v>1464</v>
+      </c>
+      <c r="H29" s="48">
+        <v>0.152</v>
+      </c>
+      <c r="I29" s="72">
+        <v>63771</v>
+      </c>
+      <c r="J29" s="63">
+        <f>I28/G28</f>
+        <v>44.962406015037594</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="75"/>
+      <c r="F30" s="59">
+        <v>3500</v>
+      </c>
+      <c r="G30" s="70">
+        <v>1696</v>
+      </c>
+      <c r="H30" s="48">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="I30" s="72">
+        <v>73094</v>
+      </c>
+      <c r="J30" s="63">
+        <f>I27/G27</f>
+        <v>46.399383983572896</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="75"/>
+      <c r="F31" s="59">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="70">
+        <v>1980</v>
+      </c>
+      <c r="H31" s="48">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="I31" s="72">
+        <v>81778</v>
+      </c>
+      <c r="J31" s="63">
+        <f>I26/G26</f>
+        <v>47.383064516129032</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="75"/>
+      <c r="F32" s="59">
+        <v>4500</v>
+      </c>
+      <c r="G32" s="70">
+        <v>2215</v>
+      </c>
+      <c r="H32" s="48">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="I32" s="72">
+        <v>87107</v>
+      </c>
+      <c r="J32" s="63">
+        <f>I25/G25</f>
+        <v>47.940540540540539</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="76"/>
+      <c r="F33" s="60">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="71">
+        <v>2437</v>
+      </c>
+      <c r="H33" s="49">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="I33" s="73">
+        <v>94276</v>
+      </c>
+      <c r="J33" s="65">
+        <f>I24/G24</f>
+        <v>50.20195439739414</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <sortState ref="K12:K21">
+    <sortCondition ref="K12"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="E24:E33"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K34"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -41353,7 +41486,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -41363,489 +41496,6 @@
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="58">
-        <v>500</v>
-      </c>
-      <c r="G12" s="69">
-        <v>128</v>
-      </c>
-      <c r="H12" s="47">
-        <f>(F12-G12)/F12</f>
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="I12" s="66">
-        <v>21101</v>
-      </c>
-      <c r="J12" s="65">
-        <f>I12/G12</f>
-        <v>164.8515625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="75"/>
-      <c r="F13" s="59">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="70">
-        <v>173</v>
-      </c>
-      <c r="H13" s="48">
-        <f t="shared" ref="H13:H33" si="0">(F13-G13)/F13</f>
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="I13" s="72">
-        <v>28263</v>
-      </c>
-      <c r="J13" s="63">
-        <f t="shared" ref="J13:J33" si="1">I13/G13</f>
-        <v>163.36994219653178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E14" s="75"/>
-      <c r="F14" s="59">
-        <v>1500</v>
-      </c>
-      <c r="G14" s="70">
-        <v>248</v>
-      </c>
-      <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>0.83466666666666667</v>
-      </c>
-      <c r="I14" s="72">
-        <v>40809</v>
-      </c>
-      <c r="J14" s="63">
-        <f t="shared" si="1"/>
-        <v>164.55241935483872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E15" s="75"/>
-      <c r="F15" s="59">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="70">
-        <v>293</v>
-      </c>
-      <c r="H15" s="48">
-        <f t="shared" si="0"/>
-        <v>0.85350000000000004</v>
-      </c>
-      <c r="I15" s="72">
-        <v>50121</v>
-      </c>
-      <c r="J15" s="63">
-        <f t="shared" si="1"/>
-        <v>171.06143344709898</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="75"/>
-      <c r="F16" s="59">
-        <v>2500</v>
-      </c>
-      <c r="G16" s="70">
-        <v>291</v>
-      </c>
-      <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88360000000000005</v>
-      </c>
-      <c r="I16" s="72">
-        <v>48728</v>
-      </c>
-      <c r="J16" s="63">
-        <f t="shared" si="1"/>
-        <v>167.45017182130584</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="75"/>
-      <c r="F17" s="59">
-        <v>3000</v>
-      </c>
-      <c r="G17" s="70">
-        <v>326</v>
-      </c>
-      <c r="H17" s="48">
-        <f t="shared" si="0"/>
-        <v>0.89133333333333331</v>
-      </c>
-      <c r="I17" s="72">
-        <v>53522</v>
-      </c>
-      <c r="J17" s="63">
-        <f t="shared" si="1"/>
-        <v>164.17791411042944</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E18" s="75"/>
-      <c r="F18" s="59">
-        <v>3500</v>
-      </c>
-      <c r="G18" s="70">
-        <v>392</v>
-      </c>
-      <c r="H18" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="I18" s="72">
-        <v>59947</v>
-      </c>
-      <c r="J18" s="63">
-        <f t="shared" si="1"/>
-        <v>152.92602040816325</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E19" s="75"/>
-      <c r="F19" s="59">
-        <v>4000</v>
-      </c>
-      <c r="G19" s="70">
-        <v>436</v>
-      </c>
-      <c r="H19" s="48">
-        <f t="shared" si="0"/>
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="I19" s="72">
-        <v>65812</v>
-      </c>
-      <c r="J19" s="63">
-        <f t="shared" si="1"/>
-        <v>150.94495412844037</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E20" s="75"/>
-      <c r="F20" s="59">
-        <v>4500</v>
-      </c>
-      <c r="G20" s="70">
-        <v>501</v>
-      </c>
-      <c r="H20" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88866666666666672</v>
-      </c>
-      <c r="I20" s="72">
-        <v>73791</v>
-      </c>
-      <c r="J20" s="63">
-        <f t="shared" si="1"/>
-        <v>147.2874251497006</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="76"/>
-      <c r="F21" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G21" s="71">
-        <v>550</v>
-      </c>
-      <c r="H21" s="49">
-        <f t="shared" si="0"/>
-        <v>0.89</v>
-      </c>
-      <c r="I21" s="73">
-        <v>79624</v>
-      </c>
-      <c r="J21" s="64">
-        <f t="shared" si="1"/>
-        <v>144.7709090909091</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H22"/>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H23"/>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="58">
-        <v>500</v>
-      </c>
-      <c r="G24" s="69">
-        <v>307</v>
-      </c>
-      <c r="H24" s="47">
-        <f t="shared" si="0"/>
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="I24" s="66">
-        <v>15412</v>
-      </c>
-      <c r="J24" s="65">
-        <f t="shared" si="1"/>
-        <v>50.20195439739414</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E25" s="75"/>
-      <c r="F25" s="59">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="70">
-        <v>555</v>
-      </c>
-      <c r="H25" s="48">
-        <f t="shared" si="0"/>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I25" s="72">
-        <v>26607</v>
-      </c>
-      <c r="J25" s="63">
-        <f t="shared" si="1"/>
-        <v>47.940540540540539</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E26" s="75"/>
-      <c r="F26" s="59">
-        <v>1500</v>
-      </c>
-      <c r="G26" s="70">
-        <v>744</v>
-      </c>
-      <c r="H26" s="48">
-        <f t="shared" si="0"/>
-        <v>0.504</v>
-      </c>
-      <c r="I26" s="72">
-        <v>35253</v>
-      </c>
-      <c r="J26" s="63">
-        <f t="shared" si="1"/>
-        <v>47.383064516129032</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E27" s="75"/>
-      <c r="F27" s="59">
-        <v>2000</v>
-      </c>
-      <c r="G27" s="70">
-        <v>974</v>
-      </c>
-      <c r="H27" s="48">
-        <f t="shared" si="0"/>
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="I27" s="72">
-        <v>45193</v>
-      </c>
-      <c r="J27" s="63">
-        <f t="shared" si="1"/>
-        <v>46.399383983572896</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="75"/>
-      <c r="F28" s="59">
-        <v>2500</v>
-      </c>
-      <c r="G28" s="70">
-        <v>1197</v>
-      </c>
-      <c r="H28" s="48">
-        <f t="shared" si="0"/>
-        <v>0.5212</v>
-      </c>
-      <c r="I28" s="72">
-        <v>53820</v>
-      </c>
-      <c r="J28" s="63">
-        <f t="shared" si="1"/>
-        <v>44.962406015037594</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="75"/>
-      <c r="F29" s="59">
-        <v>3000</v>
-      </c>
-      <c r="G29" s="70">
-        <v>1464</v>
-      </c>
-      <c r="H29" s="48">
-        <f t="shared" si="0"/>
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="I29" s="72">
-        <v>63771</v>
-      </c>
-      <c r="J29" s="63">
-        <f t="shared" si="1"/>
-        <v>43.559426229508198</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="75"/>
-      <c r="F30" s="59">
-        <v>3500</v>
-      </c>
-      <c r="G30" s="70">
-        <v>1696</v>
-      </c>
-      <c r="H30" s="48">
-        <f t="shared" si="0"/>
-        <v>0.51542857142857146</v>
-      </c>
-      <c r="I30" s="72">
-        <v>73094</v>
-      </c>
-      <c r="J30" s="63">
-        <f t="shared" si="1"/>
-        <v>43.097877358490564</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="75"/>
-      <c r="F31" s="59">
-        <v>4000</v>
-      </c>
-      <c r="G31" s="70">
-        <v>1980</v>
-      </c>
-      <c r="H31" s="48">
-        <f t="shared" si="0"/>
-        <v>0.505</v>
-      </c>
-      <c r="I31" s="72">
-        <v>81778</v>
-      </c>
-      <c r="J31" s="63">
-        <f t="shared" si="1"/>
-        <v>41.302020202020202</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="75"/>
-      <c r="F32" s="59">
-        <v>4500</v>
-      </c>
-      <c r="G32" s="70">
-        <v>2215</v>
-      </c>
-      <c r="H32" s="48">
-        <f t="shared" si="0"/>
-        <v>0.50777777777777777</v>
-      </c>
-      <c r="I32" s="72">
-        <v>87107</v>
-      </c>
-      <c r="J32" s="63">
-        <f t="shared" si="1"/>
-        <v>39.325959367945821</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="76"/>
-      <c r="F33" s="60">
-        <v>5000</v>
-      </c>
-      <c r="G33" s="71">
-        <v>2437</v>
-      </c>
-      <c r="H33" s="49">
-        <f t="shared" si="0"/>
-        <v>0.51259999999999994</v>
-      </c>
-      <c r="I33" s="73">
-        <v>94276</v>
-      </c>
-      <c r="J33" s="64">
-        <f t="shared" si="1"/>
-        <v>38.68526877308166</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="E24:E33"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="57" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>115</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -42298,8 +41948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -42313,7 +41963,7 @@
   <sheetData>
     <row r="1" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D1" s="55"/>
       <c r="E1" s="55"/>
@@ -42322,7 +41972,7 @@
     </row>
     <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
@@ -42358,7 +42008,7 @@
     </row>
     <row r="11" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E11" s="74" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="F11" s="27">
         <v>500</v>
@@ -42367,8 +42017,7 @@
         <v>119</v>
       </c>
       <c r="H11" s="47">
-        <f>(F11-G11)/F11</f>
-        <v>0.76200000000000001</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="I11" s="40">
         <v>1624</v>
@@ -42387,14 +42036,13 @@
         <v>186</v>
       </c>
       <c r="H12" s="48">
-        <f t="shared" ref="H12:H32" si="0">(F12-G12)/F12</f>
-        <v>0.81399999999999995</v>
+        <v>0.214</v>
       </c>
       <c r="I12" s="41">
         <v>2308</v>
       </c>
       <c r="J12" s="51">
-        <f t="shared" ref="J12:J32" si="1">I12/G12</f>
+        <f t="shared" ref="J12:J32" si="0">I12/G12</f>
         <v>12.408602150537634</v>
       </c>
     </row>
@@ -42407,14 +42055,13 @@
         <v>275</v>
       </c>
       <c r="H13" s="48">
-        <f t="shared" si="0"/>
-        <v>0.81666666666666665</v>
+        <v>0.2167</v>
       </c>
       <c r="I13" s="41">
         <v>3744</v>
       </c>
       <c r="J13" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.614545454545455</v>
       </c>
     </row>
@@ -42427,14 +42074,13 @@
         <v>328</v>
       </c>
       <c r="H14" s="48">
-        <f t="shared" si="0"/>
-        <v>0.83599999999999997</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="I14" s="41">
         <v>4933</v>
       </c>
       <c r="J14" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.039634146341463</v>
       </c>
     </row>
@@ -42447,14 +42093,13 @@
         <v>308</v>
       </c>
       <c r="H15" s="48">
-        <f t="shared" si="0"/>
-        <v>0.87680000000000002</v>
+        <v>0.27679999999999999</v>
       </c>
       <c r="I15" s="41">
         <v>5244</v>
       </c>
       <c r="J15" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.025974025974026</v>
       </c>
     </row>
@@ -42467,14 +42112,13 @@
         <v>289</v>
       </c>
       <c r="H16" s="48">
-        <f t="shared" si="0"/>
-        <v>0.90366666666666662</v>
+        <v>0.30370000000000003</v>
       </c>
       <c r="I16" s="41">
         <v>5070</v>
       </c>
       <c r="J16" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.54325259515571</v>
       </c>
     </row>
@@ -42487,14 +42131,13 @@
         <v>400</v>
       </c>
       <c r="H17" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88571428571428568</v>
+        <v>0.38569999999999999</v>
       </c>
       <c r="I17" s="41">
         <v>6899</v>
       </c>
       <c r="J17" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.247499999999999</v>
       </c>
     </row>
@@ -42507,14 +42150,13 @@
         <v>443</v>
       </c>
       <c r="H18" s="48">
-        <f t="shared" si="0"/>
-        <v>0.88924999999999998</v>
+        <v>0.38929999999999998</v>
       </c>
       <c r="I18" s="41">
         <v>8051</v>
       </c>
       <c r="J18" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.173814898419863</v>
       </c>
     </row>
@@ -42527,14 +42169,13 @@
         <v>492</v>
       </c>
       <c r="H19" s="48">
-        <f t="shared" si="0"/>
-        <v>0.89066666666666672</v>
+        <v>0.39069999999999999</v>
       </c>
       <c r="I19" s="41">
         <v>9449</v>
       </c>
       <c r="J19" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.20528455284553</v>
       </c>
     </row>
@@ -42547,14 +42188,13 @@
         <v>578</v>
       </c>
       <c r="H20" s="49">
-        <f t="shared" si="0"/>
-        <v>0.88439999999999996</v>
+        <v>0.38440000000000002</v>
       </c>
       <c r="I20" s="42">
         <v>11892</v>
       </c>
       <c r="J20" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.574394463667819</v>
       </c>
     </row>
@@ -42566,7 +42206,7 @@
     </row>
     <row r="23" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E23" s="74" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F23" s="27">
         <v>500</v>
@@ -42575,14 +42215,13 @@
         <v>208</v>
       </c>
       <c r="H23" s="47">
-        <f t="shared" si="0"/>
-        <v>0.58399999999999996</v>
+        <v>0.1004</v>
       </c>
       <c r="I23" s="40">
         <v>617</v>
       </c>
       <c r="J23" s="50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9663461538461537</v>
       </c>
     </row>
@@ -42595,14 +42234,13 @@
         <v>468</v>
       </c>
       <c r="H24" s="48">
-        <f t="shared" si="0"/>
-        <v>0.53200000000000003</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I24" s="41">
         <v>1063</v>
       </c>
       <c r="J24" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2713675213675213</v>
       </c>
     </row>
@@ -42615,14 +42253,13 @@
         <v>740</v>
       </c>
       <c r="H25" s="48">
-        <f t="shared" si="0"/>
-        <v>0.50666666666666671</v>
+        <v>0.1067</v>
       </c>
       <c r="I25" s="41">
         <v>2381</v>
       </c>
       <c r="J25" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2175675675675675</v>
       </c>
     </row>
@@ -42635,14 +42272,13 @@
         <v>1019</v>
       </c>
       <c r="H26" s="48">
-        <f t="shared" si="0"/>
-        <v>0.49049999999999999</v>
+        <v>0.1105</v>
       </c>
       <c r="I26" s="41">
         <v>2902</v>
       </c>
       <c r="J26" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8478900883218841</v>
       </c>
     </row>
@@ -42655,14 +42291,13 @@
         <v>1089</v>
       </c>
       <c r="H27" s="48">
-        <f t="shared" si="0"/>
-        <v>0.56440000000000001</v>
+        <v>0.1244</v>
       </c>
       <c r="I27" s="41">
         <v>2528</v>
       </c>
       <c r="J27" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3213957759412307</v>
       </c>
     </row>
@@ -42675,14 +42310,13 @@
         <v>995</v>
       </c>
       <c r="H28" s="48">
-        <f t="shared" si="0"/>
-        <v>0.66833333333333333</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="I28" s="41">
         <v>2600</v>
       </c>
       <c r="J28" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.613065326633166</v>
       </c>
     </row>
@@ -42695,14 +42329,13 @@
         <v>1430</v>
       </c>
       <c r="H29" s="48">
-        <f t="shared" si="0"/>
-        <v>0.59142857142857141</v>
+        <v>0.19139999999999999</v>
       </c>
       <c r="I29" s="41">
         <v>3110</v>
       </c>
       <c r="J29" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.174825174825175</v>
       </c>
     </row>
@@ -42715,14 +42348,13 @@
         <v>1886</v>
       </c>
       <c r="H30" s="48">
-        <f t="shared" si="0"/>
-        <v>0.52849999999999997</v>
+        <v>0.2205</v>
       </c>
       <c r="I30" s="41">
         <v>4365</v>
       </c>
       <c r="J30" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3144220572640508</v>
       </c>
     </row>
@@ -42735,14 +42367,13 @@
         <v>2102</v>
       </c>
       <c r="H31" s="48">
-        <f t="shared" si="0"/>
-        <v>0.53288888888888886</v>
+        <v>0.2329</v>
       </c>
       <c r="I31" s="41">
         <v>5141</v>
       </c>
       <c r="J31" s="51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4457659372026641</v>
       </c>
     </row>
@@ -42755,14 +42386,13 @@
         <v>2503</v>
       </c>
       <c r="H32" s="49">
-        <f t="shared" si="0"/>
-        <v>0.49940000000000001</v>
+        <v>0.2394</v>
       </c>
       <c r="I32" s="42">
         <v>5923</v>
       </c>
       <c r="J32" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3663603675589293</v>
       </c>
     </row>
@@ -42787,7 +42417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G7" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -42803,7 +42433,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -42812,7 +42442,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -43284,7 +42914,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -43293,7 +42923,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
@@ -43761,7 +43391,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -43770,7 +43400,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>

--- a/寒假/毕设论文/测试数据/测试数据.xlsx
+++ b/寒假/毕设论文/测试数据/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2019.01.08" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
   <si>
     <t>发送包数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -489,6 +489,13 @@
   </si>
   <si>
     <t>Reactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均时延</t>
+  </si>
+  <si>
+    <t>平均时延</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2152,15 +2159,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'5'!$F$7:$F$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="3">
-                  <c:v> 发包总数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>发包总数</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2174,7 +2173,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5'!$E$11:$E$34</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'5'!$E$10:$E$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'5'!$E$11:$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2188,10 +2194,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5'!$F$11:$F$34</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'5'!$F$10:$F$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'5'!$F$11:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -2257,7 +2270,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F31-4C9C-BEE8-AF5E27DB63FF}"/>
+              <c16:uniqueId val="{00000000-97AF-4B80-876F-47E39F4E113A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2270,8 +2283,9 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="649095759"/>
-        <c:axId val="649094927"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1291199776"/>
+        <c:axId val="1399560304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2280,15 +2294,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'5'!$J$7:$J$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="3">
-                  <c:v>平均时延</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>平均时延</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -2304,7 +2310,14 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'5'!$E$11:$E$34</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'5'!$E$10:$E$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'5'!$E$11:$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
@@ -2318,69 +2331,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5'!$J$11:$J$34</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'5'!$K$10:$K$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'5'!$K$11:$K$33</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>13.647058823529411</c:v>
+                  <c:v>413.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.408602150537634</c:v>
+                  <c:v>432.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.614545454545455</c:v>
+                  <c:v>453.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.039634146341463</c:v>
+                  <c:v>485.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.025974025974026</c:v>
+                  <c:v>567.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.54325259515571</c:v>
+                  <c:v>665.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.247499999999999</c:v>
+                  <c:v>701.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.173814898419863</c:v>
+                  <c:v>751.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.20528455284553</c:v>
+                  <c:v>809.21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.574394463667819</c:v>
+                  <c:v>820.57</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9663461538461537</c:v>
+                  <c:v>242.97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2713675213675213</c:v>
+                  <c:v>262.27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2175675675675675</c:v>
+                  <c:v>273.22000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8478900883218841</c:v>
+                  <c:v>288.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3213957759412307</c:v>
+                  <c:v>293.22000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.613065326633166</c:v>
+                  <c:v>308.61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.174825174825175</c:v>
+                  <c:v>311.72000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3144220572640508</c:v>
+                  <c:v>322.31</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4457659372026641</c:v>
+                  <c:v>332.45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.3663603675589293</c:v>
+                  <c:v>343.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2388,7 +2408,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F31-4C9C-BEE8-AF5E27DB63FF}"/>
+              <c16:uniqueId val="{00000001-97AF-4B80-876F-47E39F4E113A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2402,11 +2422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="742850015"/>
-        <c:axId val="742849183"/>
+        <c:axId val="1483957344"/>
+        <c:axId val="1399557808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="649095759"/>
+        <c:axId val="1291199776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649094927"/>
+        <c:crossAx val="1399560304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="649094927"/>
+        <c:axId val="1399560304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2508,18 +2528,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649095759"/>
+        <c:crossAx val="1291199776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="742849183"/>
+        <c:axId val="1399557808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2550,12 +2570,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="742850015"/>
+        <c:crossAx val="1483957344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="742850015"/>
+        <c:axId val="1483957344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,8 +2585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="742849183"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1399557808"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -10803,7 +10822,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11287,7 +11305,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11394,7 +11411,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11878,7 +11894,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17238,7 +17253,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2827-4A87-920C-2F6100B3C3AD}"/>
+              <c16:uniqueId val="{00000000-0AC1-4D79-8BDA-4620BD25FAD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17252,8 +17267,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="114493168"/>
-        <c:axId val="114494832"/>
+        <c:axId val="1483951936"/>
+        <c:axId val="1483955264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17302,73 +17317,73 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'3'!$J$11:$J$34</c15:sqref>
+                    <c15:sqref>'3'!$K$11:$K$34</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'3'!$J$12:$J$34</c:f>
+              <c:f>'3'!$K$12:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>144.7709090909091</c:v>
+                  <c:v>211.85798889968049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>147.2874251497006</c:v>
+                  <c:v>221.1808738354658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150.94495412844037</c:v>
+                  <c:v>234.67056932966025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.92602040816325</c:v>
+                  <c:v>260.56757774178095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>163.36994219653178</c:v>
+                  <c:v>286.57517256255392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164.17791411042944</c:v>
+                  <c:v>318.43063750026624</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.55241935483872</c:v>
+                  <c:v>377.23076409408861</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164.8515625</c:v>
+                  <c:v>415.64091680814937</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>167.45017182130584</c:v>
+                  <c:v>456.5765765765766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171.06143344709898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>38.68526877308166</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39.325959367945821</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.302020202020202</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43.097877358490564</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43.559426229508198</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44.962406015037594</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>46.399383983572896</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>47.383064516129032</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>47.940540540540539</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50.20195439739414</c:v>
+                  <c:v>583.7436557836528</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>144.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>147.29</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>150.94</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>152.93</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>163.37</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>164.18</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>164.55</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>164.85</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>167.45</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>171.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17376,7 +17391,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2827-4A87-920C-2F6100B3C3AD}"/>
+              <c16:uniqueId val="{00000001-0AC1-4D79-8BDA-4620BD25FAD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17390,11 +17405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114519376"/>
-        <c:axId val="114518960"/>
+        <c:axId val="1483953184"/>
+        <c:axId val="1483952768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114493168"/>
+        <c:axId val="1483951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17437,7 +17452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114494832"/>
+        <c:crossAx val="1483955264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17445,7 +17460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114494832"/>
+        <c:axId val="1483955264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17496,18 +17511,18 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114493168"/>
+        <c:crossAx val="1483951936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="114518960"/>
+        <c:axId val="1483952768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -17538,12 +17553,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114519376"/>
+        <c:crossAx val="1483953184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="114519376"/>
+        <c:axId val="1483953184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17553,8 +17568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114518960"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1483952768"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -35126,16 +35140,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35156,20 +35170,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -35256,16 +35270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35286,20 +35300,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -36518,8 +36532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36995,7 +37009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" workbookViewId="0">
+    <sheetView topLeftCell="G13" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -37472,8 +37486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="I31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53:J62"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39667,7 +39681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D10:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="I4" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -39977,7 +39991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -40448,8 +40462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -40648,7 +40662,7 @@
         <v>15719</v>
       </c>
       <c r="J13" s="63">
-        <f t="shared" ref="J13:J33" si="0">I13/G13</f>
+        <f t="shared" ref="J13:J21" si="0">I13/G13</f>
         <v>119.99236641221374</v>
       </c>
     </row>
@@ -41004,10 +41018,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41020,7 +41034,7 @@
     <col min="10" max="10" width="13.5" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>110</v>
       </c>
@@ -41029,7 +41043,7 @@
       <c r="D1" s="55"/>
       <c r="E1" s="56"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
         <v>113</v>
       </c>
@@ -41038,9 +41052,9 @@
       <c r="D2" s="78"/>
       <c r="E2" s="79"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="27" t="s">
         <v>70</v>
       </c>
@@ -41057,10 +41071,13 @@
         <v>75</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>76</v>
+        <v>138</v>
+      </c>
+      <c r="K11" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="74" t="s">
         <v>133</v>
       </c>
@@ -41080,8 +41097,12 @@
         <f>I21/G21</f>
         <v>144.7709090909091</v>
       </c>
+      <c r="K12" s="64">
+        <f>J33/H33</f>
+        <v>211.85798889968049</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E13" s="75"/>
       <c r="F13" s="59">
         <v>1000</v>
@@ -41099,8 +41120,12 @@
         <f>I20/G20</f>
         <v>147.2874251497006</v>
       </c>
+      <c r="K13" s="63">
+        <f>J32/H32</f>
+        <v>221.1808738354658</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E14" s="75"/>
       <c r="F14" s="59">
         <v>1500</v>
@@ -41118,8 +41143,12 @@
         <f>I19/G19</f>
         <v>150.94495412844037</v>
       </c>
+      <c r="K14" s="63">
+        <f>J31/H31</f>
+        <v>234.67056932966025</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E15" s="75"/>
       <c r="F15" s="59">
         <v>2000</v>
@@ -41137,8 +41166,12 @@
         <f>I18/G18</f>
         <v>152.92602040816325</v>
       </c>
+      <c r="K15" s="63">
+        <f>J30/H30</f>
+        <v>260.56757774178095</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E16" s="75"/>
       <c r="F16" s="59">
         <v>2500</v>
@@ -41156,8 +41189,12 @@
         <f>I13/G13</f>
         <v>163.36994219653178</v>
       </c>
+      <c r="K16" s="63">
+        <f>J29/H29</f>
+        <v>286.57517256255392</v>
+      </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E17" s="75"/>
       <c r="F17" s="59">
         <v>3000</v>
@@ -41175,8 +41212,12 @@
         <f>I17/G17</f>
         <v>164.17791411042944</v>
       </c>
+      <c r="K17" s="63">
+        <f>J28/H28</f>
+        <v>318.43063750026624</v>
+      </c>
     </row>
-    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E18" s="75"/>
       <c r="F18" s="59">
         <v>3500</v>
@@ -41194,8 +41235,12 @@
         <f>I14/G14</f>
         <v>164.55241935483872</v>
       </c>
+      <c r="K18" s="63">
+        <f>J27/H27</f>
+        <v>377.23076409408861</v>
+      </c>
     </row>
-    <row r="19" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E19" s="75"/>
       <c r="F19" s="59">
         <v>4000</v>
@@ -41213,8 +41258,12 @@
         <f>I12/G12</f>
         <v>164.8515625</v>
       </c>
+      <c r="K19" s="63">
+        <f>J26/H26</f>
+        <v>415.64091680814937</v>
+      </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="75"/>
       <c r="F20" s="59">
         <v>4500</v>
@@ -41232,8 +41281,12 @@
         <f>I16/G16</f>
         <v>167.45017182130584</v>
       </c>
+      <c r="K20" s="63">
+        <f>J25/H25</f>
+        <v>456.5765765765766</v>
+      </c>
     </row>
-    <row r="21" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E21" s="76"/>
       <c r="F21" s="60">
         <v>5000</v>
@@ -41251,14 +41304,18 @@
         <f>I15/G15</f>
         <v>171.06143344709898</v>
       </c>
+      <c r="K21" s="65">
+        <f>J24/H24</f>
+        <v>583.7436557836528</v>
+      </c>
     </row>
-    <row r="22" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H22"/>
     </row>
-    <row r="23" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H23"/>
     </row>
-    <row r="24" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E24" s="74" t="s">
         <v>134</v>
       </c>
@@ -41274,12 +41331,15 @@
       <c r="I24" s="66">
         <v>15412</v>
       </c>
-      <c r="J24" s="64">
-        <f>I33/G33</f>
-        <v>38.68526877308166</v>
+      <c r="J24" s="65">
+        <f t="shared" ref="J24:K33" si="0">I24/G24</f>
+        <v>50.20195439739414</v>
+      </c>
+      <c r="K24">
+        <v>144.77000000000001</v>
       </c>
     </row>
-    <row r="25" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E25" s="75"/>
       <c r="F25" s="59">
         <v>1000</v>
@@ -41294,11 +41354,14 @@
         <v>26607</v>
       </c>
       <c r="J25" s="63">
-        <f>I32/G32</f>
-        <v>39.325959367945821</v>
+        <f t="shared" si="0"/>
+        <v>47.940540540540539</v>
+      </c>
+      <c r="K25">
+        <v>147.29</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E26" s="75"/>
       <c r="F26" s="59">
         <v>1500</v>
@@ -41313,11 +41376,14 @@
         <v>35253</v>
       </c>
       <c r="J26" s="63">
-        <f>I31/G31</f>
-        <v>41.302020202020202</v>
+        <f t="shared" si="0"/>
+        <v>47.383064516129032</v>
+      </c>
+      <c r="K26">
+        <v>150.94</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E27" s="75"/>
       <c r="F27" s="59">
         <v>2000</v>
@@ -41332,11 +41398,14 @@
         <v>45193</v>
       </c>
       <c r="J27" s="63">
-        <f>I30/G30</f>
-        <v>43.097877358490564</v>
+        <f t="shared" si="0"/>
+        <v>46.399383983572896</v>
+      </c>
+      <c r="K27">
+        <v>152.93</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E28" s="75"/>
       <c r="F28" s="59">
         <v>2500</v>
@@ -41351,11 +41420,14 @@
         <v>53820</v>
       </c>
       <c r="J28" s="63">
-        <f>I29/G29</f>
-        <v>43.559426229508198</v>
+        <f t="shared" si="0"/>
+        <v>44.962406015037594</v>
+      </c>
+      <c r="K28">
+        <v>163.37</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E29" s="75"/>
       <c r="F29" s="59">
         <v>3000</v>
@@ -41370,11 +41442,14 @@
         <v>63771</v>
       </c>
       <c r="J29" s="63">
-        <f>I28/G28</f>
-        <v>44.962406015037594</v>
+        <f t="shared" si="0"/>
+        <v>43.559426229508198</v>
+      </c>
+      <c r="K29">
+        <v>164.18</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E30" s="75"/>
       <c r="F30" s="59">
         <v>3500</v>
@@ -41389,11 +41464,14 @@
         <v>73094</v>
       </c>
       <c r="J30" s="63">
-        <f>I27/G27</f>
-        <v>46.399383983572896</v>
+        <f t="shared" si="0"/>
+        <v>43.097877358490564</v>
+      </c>
+      <c r="K30">
+        <v>164.55</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E31" s="75"/>
       <c r="F31" s="59">
         <v>4000</v>
@@ -41408,11 +41486,14 @@
         <v>81778</v>
       </c>
       <c r="J31" s="63">
-        <f>I26/G26</f>
-        <v>47.383064516129032</v>
+        <f t="shared" si="0"/>
+        <v>41.302020202020202</v>
+      </c>
+      <c r="K31">
+        <v>164.85</v>
       </c>
     </row>
-    <row r="32" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E32" s="75"/>
       <c r="F32" s="59">
         <v>4500</v>
@@ -41427,11 +41508,14 @@
         <v>87107</v>
       </c>
       <c r="J32" s="63">
-        <f>I25/G25</f>
-        <v>47.940540540540539</v>
+        <f t="shared" si="0"/>
+        <v>39.325959367945821</v>
+      </c>
+      <c r="K32">
+        <v>167.45</v>
       </c>
     </row>
-    <row r="33" spans="5:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E33" s="76"/>
       <c r="F33" s="60">
         <v>5000</v>
@@ -41445,15 +41529,18 @@
       <c r="I33" s="73">
         <v>94276</v>
       </c>
-      <c r="J33" s="65">
-        <f>I24/G24</f>
-        <v>50.20195439739414</v>
+      <c r="J33" s="64">
+        <f t="shared" si="0"/>
+        <v>38.68526877308166</v>
+      </c>
+      <c r="K33">
+        <v>171.06</v>
       </c>
     </row>
-    <row r="34" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="5:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState ref="K12:K21">
-    <sortCondition ref="K12"/>
+  <sortState ref="E24:K33">
+    <sortCondition descending="1" ref="K24"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
@@ -41462,7 +41549,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -41470,7 +41558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -41946,10 +42034,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:J33"/>
+  <dimension ref="C1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="K7" activeCellId="2" sqref="E1:E1048576 F1:F1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41959,9 +42047,10 @@
     <col min="8" max="8" width="11.625" style="38" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C1" s="54" t="s">
         <v>110</v>
       </c>
@@ -41970,7 +42059,7 @@
       <c r="F1" s="55"/>
       <c r="G1" s="56"/>
     </row>
-    <row r="2" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="77" t="s">
         <v>115</v>
       </c>
@@ -41979,14 +42068,14 @@
       <c r="F2" s="78"/>
       <c r="G2" s="79"/>
     </row>
-    <row r="3" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
     </row>
-    <row r="9" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="3:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="3:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E10" s="27" t="s">
         <v>70</v>
       </c>
@@ -42005,8 +42094,11 @@
       <c r="J10" s="37" t="s">
         <v>76</v>
       </c>
+      <c r="K10" s="37" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="11" spans="3:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E11" s="74" t="s">
         <v>132</v>
       </c>
@@ -42026,8 +42118,11 @@
         <f>I11/G11</f>
         <v>13.647058823529411</v>
       </c>
+      <c r="K11" s="57">
+        <v>413.65</v>
+      </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E12" s="75"/>
       <c r="F12" s="22">
         <v>1000</v>
@@ -42045,8 +42140,11 @@
         <f t="shared" ref="J12:J32" si="0">I12/G12</f>
         <v>12.408602150537634</v>
       </c>
+      <c r="K12" s="57">
+        <v>432.41</v>
+      </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E13" s="75"/>
       <c r="F13" s="22">
         <v>1500</v>
@@ -42064,8 +42162,11 @@
         <f t="shared" si="0"/>
         <v>13.614545454545455</v>
       </c>
+      <c r="K13" s="57">
+        <v>453.61</v>
+      </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E14" s="75"/>
       <c r="F14" s="22">
         <v>2000</v>
@@ -42083,8 +42184,11 @@
         <f t="shared" si="0"/>
         <v>15.039634146341463</v>
       </c>
+      <c r="K14" s="57">
+        <v>485.04</v>
+      </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E15" s="75"/>
       <c r="F15" s="22">
         <v>2500</v>
@@ -42102,8 +42206,11 @@
         <f t="shared" si="0"/>
         <v>17.025974025974026</v>
       </c>
+      <c r="K15" s="57">
+        <v>567.03</v>
+      </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E16" s="75"/>
       <c r="F16" s="22">
         <v>3000</v>
@@ -42121,8 +42228,11 @@
         <f t="shared" si="0"/>
         <v>17.54325259515571</v>
       </c>
+      <c r="K16" s="57">
+        <v>665.47</v>
+      </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E17" s="75"/>
       <c r="F17" s="22">
         <v>3500</v>
@@ -42140,8 +42250,11 @@
         <f t="shared" si="0"/>
         <v>17.247499999999999</v>
       </c>
+      <c r="K17" s="57">
+        <v>701.25</v>
+      </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E18" s="75"/>
       <c r="F18" s="22">
         <v>4000</v>
@@ -42159,8 +42272,11 @@
         <f t="shared" si="0"/>
         <v>18.173814898419863</v>
       </c>
+      <c r="K18" s="57">
+        <v>751.17</v>
+      </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E19" s="75"/>
       <c r="F19" s="22">
         <v>4500</v>
@@ -42178,8 +42294,11 @@
         <f t="shared" si="0"/>
         <v>19.20528455284553</v>
       </c>
+      <c r="K19" s="57">
+        <v>809.21</v>
+      </c>
     </row>
-    <row r="20" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="76"/>
       <c r="F20" s="25">
         <v>5000</v>
@@ -42197,14 +42316,17 @@
         <f t="shared" si="0"/>
         <v>20.574394463667819</v>
       </c>
+      <c r="K20" s="57">
+        <v>820.57</v>
+      </c>
     </row>
-    <row r="21" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J21" s="39"/>
     </row>
-    <row r="22" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="E23" s="74" t="s">
         <v>135</v>
       </c>
@@ -42224,8 +42346,11 @@
         <f t="shared" si="0"/>
         <v>2.9663461538461537</v>
       </c>
+      <c r="K23" s="57">
+        <v>242.97</v>
+      </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E24" s="75"/>
       <c r="F24" s="22">
         <v>1000</v>
@@ -42243,8 +42368,11 @@
         <f t="shared" si="0"/>
         <v>2.2713675213675213</v>
       </c>
+      <c r="K24" s="57">
+        <v>262.27</v>
+      </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E25" s="75"/>
       <c r="F25" s="22">
         <v>1500</v>
@@ -42262,8 +42390,11 @@
         <f t="shared" si="0"/>
         <v>3.2175675675675675</v>
       </c>
+      <c r="K25" s="57">
+        <v>273.22000000000003</v>
+      </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E26" s="75"/>
       <c r="F26" s="22">
         <v>2000</v>
@@ -42281,8 +42412,11 @@
         <f t="shared" si="0"/>
         <v>2.8478900883218841</v>
       </c>
+      <c r="K26" s="57">
+        <v>288.52999999999997</v>
+      </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E27" s="75"/>
       <c r="F27" s="22">
         <v>2500</v>
@@ -42300,8 +42434,11 @@
         <f t="shared" si="0"/>
         <v>2.3213957759412307</v>
       </c>
+      <c r="K27" s="57">
+        <v>293.22000000000003</v>
+      </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E28" s="75"/>
       <c r="F28" s="22">
         <v>3000</v>
@@ -42319,8 +42456,11 @@
         <f t="shared" si="0"/>
         <v>2.613065326633166</v>
       </c>
+      <c r="K28" s="57">
+        <v>308.61</v>
+      </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E29" s="75"/>
       <c r="F29" s="22">
         <v>3500</v>
@@ -42338,8 +42478,11 @@
         <f t="shared" si="0"/>
         <v>2.174825174825175</v>
       </c>
+      <c r="K29" s="57">
+        <v>311.72000000000003</v>
+      </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E30" s="75"/>
       <c r="F30" s="22">
         <v>4000</v>
@@ -42357,8 +42500,11 @@
         <f t="shared" si="0"/>
         <v>2.3144220572640508</v>
       </c>
+      <c r="K30" s="57">
+        <v>322.31</v>
+      </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E31" s="75"/>
       <c r="F31" s="22">
         <v>4500</v>
@@ -42376,8 +42522,11 @@
         <f t="shared" si="0"/>
         <v>2.4457659372026641</v>
       </c>
+      <c r="K31" s="57">
+        <v>332.45</v>
+      </c>
     </row>
-    <row r="32" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E32" s="76"/>
       <c r="F32" s="25">
         <v>5000</v>
@@ -42394,6 +42543,9 @@
       <c r="J32" s="52">
         <f t="shared" si="0"/>
         <v>2.3663603675589293</v>
+      </c>
+      <c r="K32" s="57">
+        <v>343.37</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -42417,7 +42569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -42898,8 +43050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43375,7 +43527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
